--- a/Diagram/001_Document/Interface_Define_TC_Creator.xlsx
+++ b/Diagram/001_Document/Interface_Define_TC_Creator.xlsx
@@ -9,30 +9,34 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22905" windowHeight="14670" tabRatio="881" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22905" windowHeight="14670" tabRatio="881" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Temp" sheetId="2" r:id="rId1"/>
-    <sheet name="Detail Function" sheetId="8" r:id="rId2"/>
-    <sheet name="ControlManger" sheetId="1" r:id="rId3"/>
-    <sheet name="ScreenInfo" sheetId="3" r:id="rId4"/>
-    <sheet name="ConfigSetting" sheetId="4" r:id="rId5"/>
-    <sheet name="Util" sheetId="11" r:id="rId6"/>
-    <sheet name="Popup" sheetId="10" r:id="rId7"/>
-    <sheet name="Dialog" sheetId="21" r:id="rId8"/>
-    <sheet name="Control" sheetId="5" r:id="rId9"/>
-    <sheet name="Handler" sheetId="6" r:id="rId10"/>
-    <sheet name="Gui" sheetId="7" r:id="rId11"/>
-    <sheet name="Python" sheetId="9" r:id="rId12"/>
-    <sheet name="ControlMenu" sheetId="14" r:id="rId13"/>
-    <sheet name="HandlerMenu" sheetId="13" r:id="rId14"/>
-    <sheet name="GuiMenu" sheetId="12" r:id="rId15"/>
-    <sheet name="ControlCenter" sheetId="15" r:id="rId16"/>
-    <sheet name="HandlerCenter" sheetId="16" r:id="rId17"/>
-    <sheet name="GuiCenter" sheetId="17" r:id="rId18"/>
-    <sheet name="ControlExcel" sheetId="18" r:id="rId19"/>
-    <sheet name="HandlerExcel" sheetId="19" r:id="rId20"/>
-    <sheet name="GuiExcel" sheetId="20" r:id="rId21"/>
+    <sheet name="ReadMe" sheetId="27" r:id="rId1"/>
+    <sheet name="추적표" sheetId="28" r:id="rId2"/>
+    <sheet name="요구사항 식별자" sheetId="23" r:id="rId3"/>
+    <sheet name="구조설계 식별자" sheetId="24" r:id="rId4"/>
+    <sheet name="상세설계 식별자" sheetId="26" r:id="rId5"/>
+    <sheet name="Detail Function" sheetId="8" r:id="rId6"/>
+    <sheet name="ControlManger" sheetId="1" r:id="rId7"/>
+    <sheet name="ScreenInfo" sheetId="3" r:id="rId8"/>
+    <sheet name="ConfigSetting" sheetId="4" r:id="rId9"/>
+    <sheet name="Util" sheetId="11" r:id="rId10"/>
+    <sheet name="Popup" sheetId="10" r:id="rId11"/>
+    <sheet name="Dialog" sheetId="21" r:id="rId12"/>
+    <sheet name="Control" sheetId="5" r:id="rId13"/>
+    <sheet name="Handler" sheetId="6" r:id="rId14"/>
+    <sheet name="Gui" sheetId="7" r:id="rId15"/>
+    <sheet name="Python" sheetId="9" r:id="rId16"/>
+    <sheet name="ControlMenu" sheetId="14" r:id="rId17"/>
+    <sheet name="HandlerMenu" sheetId="13" r:id="rId18"/>
+    <sheet name="GuiMenu" sheetId="12" r:id="rId19"/>
+    <sheet name="ControlCenter" sheetId="15" r:id="rId20"/>
+    <sheet name="HandlerCenter" sheetId="16" r:id="rId21"/>
+    <sheet name="GuiCenter" sheetId="17" r:id="rId22"/>
+    <sheet name="ControlExcel" sheetId="18" r:id="rId23"/>
+    <sheet name="HandlerExcel" sheetId="19" r:id="rId24"/>
+    <sheet name="GuiExcel" sheetId="20" r:id="rId25"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="814">
   <si>
     <t>Description</t>
   </si>
@@ -894,25 +898,13 @@
     <t>signalHandlerEvent</t>
   </si>
   <si>
-    <t>const PopupType&amp; popupType, AbstractHandler* handler, QVariant&amp; popupData, const QVariant&amp; value</t>
-  </si>
-  <si>
     <t>const PopupType&amp; type</t>
   </si>
   <si>
     <t>const QVariant&amp; data</t>
   </si>
   <si>
-    <t>AbstractHandler* handler, const bool&amp; warning, const QString&amp; title, const QString&amp; tip</t>
-  </si>
-  <si>
-    <t>const PopupType&amp; popupType, AbstractHandler* handler, const QVariant&amp; textList</t>
-  </si>
-  <si>
     <t>AbstractHandler* handler</t>
-  </si>
-  <si>
-    <t>AbstractHandler* handler, const QString&amp; title, const QString&amp; path</t>
   </si>
   <si>
     <t>PopupButton</t>
@@ -2568,6 +2560,410 @@
   </si>
   <si>
     <t>다이얼로그 발생 시그널</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS-REQ-0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS-REQ-0002</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0003</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0004</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0005</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0006</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0007</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0008</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0009</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0010</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0011</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0012</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0013</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0014</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0015</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0016</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0017</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0018</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0019</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0020</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0021</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0022</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0023</t>
+  </si>
+  <si>
+    <t>Test Case 생성 및 선택</t>
+  </si>
+  <si>
+    <t>Test Case - Create</t>
+  </si>
+  <si>
+    <t>Test Case - Open</t>
+  </si>
+  <si>
+    <t>Test Case 편집</t>
+  </si>
+  <si>
+    <t>Test Case 표시</t>
+  </si>
+  <si>
+    <t>삽입 (Insert)</t>
+  </si>
+  <si>
+    <t>삭제 (Delete)</t>
+  </si>
+  <si>
+    <t>복사 (Copy)</t>
+  </si>
+  <si>
+    <t>붙여넣기 (Paste)</t>
+  </si>
+  <si>
+    <t>잘라내기 (Cut)</t>
+  </si>
+  <si>
+    <t>병합 (Merge)</t>
+  </si>
+  <si>
+    <t>분리 (Split)</t>
+  </si>
+  <si>
+    <t>자동 완성 (Auto Complete)</t>
+  </si>
+  <si>
+    <t>저장 (Save)</t>
+  </si>
+  <si>
+    <t>다른 이름으로 저장 (Save As)</t>
+  </si>
+  <si>
+    <t>단축기</t>
+  </si>
+  <si>
+    <t>Test 실행</t>
+  </si>
+  <si>
+    <t>Test Case 생성</t>
+  </si>
+  <si>
+    <t>Test Report</t>
+  </si>
+  <si>
+    <t>Coverage Report</t>
+  </si>
+  <si>
+    <t>Script 실행 지원</t>
+  </si>
+  <si>
+    <t>VSM Node Checker</t>
+  </si>
+  <si>
+    <t>설정 기능</t>
+  </si>
+  <si>
+    <t>Application Mode</t>
+  </si>
+  <si>
+    <t>Working Path</t>
+  </si>
+  <si>
+    <t>VSM Node 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VSM Node 검색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조설계(HLD)
+식별자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLD-DET-0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLD-DET-0002</t>
+  </si>
+  <si>
+    <t>LLD-DET-0003</t>
+  </si>
+  <si>
+    <t>LLD-DET-0004</t>
+  </si>
+  <si>
+    <t>LLD-DET-0005</t>
+  </si>
+  <si>
+    <t>LLD-DET-0006</t>
+  </si>
+  <si>
+    <t>LLD-DET-0007</t>
+  </si>
+  <si>
+    <t>LLD-DET-0008</t>
+  </si>
+  <si>
+    <t>LLD-DET-0009</t>
+  </si>
+  <si>
+    <t>HLD-DES-0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLD-DES-0002</t>
+  </si>
+  <si>
+    <t>HLD-DES-0003</t>
+  </si>
+  <si>
+    <t>HLD-DES-0004</t>
+  </si>
+  <si>
+    <t>HLD-DES-0005</t>
+  </si>
+  <si>
+    <t>HLD-DES-0006</t>
+  </si>
+  <si>
+    <t>HLD-DES-0007</t>
+  </si>
+  <si>
+    <t>HLD-DES-0008</t>
+  </si>
+  <si>
+    <t>HLD-DES-0009</t>
+  </si>
+  <si>
+    <t>구조설계 항목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLD-DES-0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control Manager Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screen Info Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Config Setting Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hander Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gui Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Popup Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialog Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel Parser Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLD-DET-0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항(SRS) 식별자</t>
+  </si>
+  <si>
+    <t>SRS: Software Requirements Specification (소프트웨어 요구사항 명세서)</t>
+  </si>
+  <si>
+    <t>REQ: Requirement (요구사항)</t>
+  </si>
+  <si>
+    <t>구조설계(HLD) 식별자</t>
+  </si>
+  <si>
+    <t>HLD: High-Level Design (구조 설계)</t>
+  </si>
+  <si>
+    <t>DES: Design (설계)</t>
+  </si>
+  <si>
+    <t>상세설계(LLD) 식별자</t>
+  </si>
+  <si>
+    <t>LLD: Low-Level Design (상세 설계)</t>
+  </si>
+  <si>
+    <t>DET: Detail (상세)</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>LLD-DET-0010</t>
+  </si>
+  <si>
+    <t>LLD-DET-0011</t>
+  </si>
+  <si>
+    <t>LLD-DET-0012</t>
+  </si>
+  <si>
+    <t>LLD-DET-0013</t>
+  </si>
+  <si>
+    <t>LLD-DET-0014</t>
+  </si>
+  <si>
+    <t>LLD-DET-0015</t>
+  </si>
+  <si>
+    <t>Gui Menu Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handler Menu Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control Menu Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gui Center Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handler Center Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control Center Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gui Excel Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handler Excel Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control Excel Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항(SRS)
+식별자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항(SRS) 식별자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조설계(HLD) 식별자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세설게(LLD) 식별자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLD-DES-0007, HLD-DES-0006</t>
+  </si>
+  <si>
+    <t>HLD-DES-0001, HLD-DES-0002, HLD-DES-0003, HLD-DES-0004, HLD-DES-0007, HLD-DES-0008, HLD-DES-0009</t>
+  </si>
+  <si>
+    <t>HLD-DES-0007, HLD-DES-0008, HLD-DES-0009</t>
+  </si>
+  <si>
+    <t>HLD-DES-0005, HLD-DES-0007, HLD-DES-0008, HLD-DES-0009</t>
+  </si>
+  <si>
+    <t>HLD-DES-0001, HLD-DES-0004, HLD-DES-0006, HLD-DES-0007, HLD-DES-0008, HLD-DES-0009</t>
+  </si>
+  <si>
+    <t>HLD-DES-0005, HLD-DES-0006, HLD-DES-0007, HLD-DES-0008, HLD-DES-0009</t>
+  </si>
+  <si>
+    <t>HLD-DES-0003, HLD-DES-0006, HLD-DES-0007, HLD-DES-0008, HLD-DES-0009</t>
+  </si>
+  <si>
+    <t>식별자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2575,7 +2971,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2616,6 +3012,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2637,7 +3041,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2697,13 +3101,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2718,9 +3159,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2746,6 +3184,30 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2763,6 +3225,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3044,134 +3527,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="B2" sqref="B2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="88.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="2.625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="33" customWidth="1"/>
+    <col min="3" max="3" width="67.25" style="33" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>235</v>
-      </c>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
+        <v>812</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="31" t="s">
+        <v>776</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="31"/>
+      <c r="C5" s="32" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="31"/>
+      <c r="C7" s="32" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="31"/>
+      <c r="C8" s="32" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="31"/>
+      <c r="C11" s="32" t="s">
+        <v>746</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3180,7 +3731,1543 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="30.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A37:D37"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -3400,7 +5487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -3564,7 +5651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -3582,16 +5669,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3686,7 +5773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
@@ -3704,16 +5791,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3784,7 +5871,7 @@
         <v>112</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.3">
@@ -3840,7 +5927,7 @@
         <v>117</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -4072,27 +6159,27 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -4100,13 +6187,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -4114,13 +6201,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -4128,13 +6215,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -4142,13 +6229,13 @@
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -4156,13 +6243,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -4170,13 +6257,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -4184,13 +6271,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -4198,13 +6285,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -4212,13 +6299,13 @@
         <v>50</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -4226,13 +6313,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -4240,13 +6327,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="27" x14ac:dyDescent="0.3">
@@ -4254,13 +6341,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="27" x14ac:dyDescent="0.3">
@@ -4268,13 +6355,13 @@
         <v>15</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -4284,7 +6371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -4302,16 +6389,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4504,7 +6591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
@@ -4522,16 +6609,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4557,7 +6644,7 @@
         <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>140</v>
@@ -4568,7 +6655,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>174</v>
@@ -4582,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>66</v>
@@ -4596,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>66</v>
@@ -4610,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>66</v>
@@ -4624,7 +6711,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>66</v>
@@ -4638,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>66</v>
@@ -4652,7 +6739,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>84</v>
@@ -4666,13 +6753,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -4680,13 +6767,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -4694,13 +6781,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -4708,13 +6795,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -4722,13 +6809,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -4736,13 +6823,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4750,13 +6837,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4764,13 +6851,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.3">
@@ -4778,13 +6865,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -4792,13 +6879,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -4806,13 +6893,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -4820,13 +6907,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.3">
@@ -4834,13 +6921,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -4848,13 +6935,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -4862,13 +6949,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -4876,13 +6963,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -4890,13 +6977,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -4904,13 +6991,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -4918,13 +7005,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -4932,13 +7019,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -4946,27 +7033,27 @@
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -4974,13 +7061,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -4988,13 +7075,13 @@
         <v>50</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -5002,27 +7089,27 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5032,7 +7119,271 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="13.25" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>802</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>803</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>804</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>694</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>695</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="1:4" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>696</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>806</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>697</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>698</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>699</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+    </row>
+    <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>700</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>701</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>702</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>703</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>704</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>808</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:4" ht="81" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>705</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>809</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+    </row>
+    <row r="14" spans="1:4" ht="81" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>706</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>809</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>707</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>708</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>810</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>709</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>810</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+    </row>
+    <row r="18" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>710</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>810</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+    </row>
+    <row r="19" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>711</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>810</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+    </row>
+    <row r="20" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>712</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>810</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>713</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>808</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+    </row>
+    <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>714</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>808</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+    </row>
+    <row r="23" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>811</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+    </row>
+    <row r="24" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>716</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>811</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
@@ -5050,16 +7401,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5130,7 +7481,7 @@
         <v>112</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.3">
@@ -5186,7 +7537,7 @@
         <v>117</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -5418,13 +7769,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5432,13 +7783,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="27" x14ac:dyDescent="0.3">
@@ -5446,13 +7797,13 @@
         <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -5460,41 +7811,41 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -5502,13 +7853,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -5516,13 +7867,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="27" x14ac:dyDescent="0.3">
@@ -5530,13 +7881,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -5546,7 +7897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -5564,16 +7915,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5766,7 +8117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -5784,16 +8135,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5830,7 +8181,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>174</v>
@@ -5844,7 +8195,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>66</v>
@@ -5858,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>66</v>
@@ -5872,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>66</v>
@@ -5886,7 +8237,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>66</v>
@@ -5900,7 +8251,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>66</v>
@@ -5914,7 +8265,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>84</v>
@@ -5928,13 +8279,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -5942,13 +8293,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -5956,13 +8307,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -5970,13 +8321,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -5984,13 +8335,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -5998,13 +8349,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -6012,27 +8363,27 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -6040,13 +8391,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -6054,13 +8405,13 @@
         <v>50</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -6068,13 +8419,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -6084,7 +8435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
@@ -6102,16 +8453,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6182,7 +8533,7 @@
         <v>112</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.3">
@@ -6238,7 +8589,7 @@
         <v>117</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -6470,13 +8821,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.3">
@@ -6484,13 +8835,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -6498,13 +8849,13 @@
         <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -6512,13 +8863,13 @@
         <v>50</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -6526,27 +8877,27 @@
         <v>50</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -6554,13 +8905,13 @@
         <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -6568,13 +8919,13 @@
         <v>50</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -6582,13 +8933,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -6596,13 +8947,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -6610,13 +8961,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -6624,55 +8975,55 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="54" x14ac:dyDescent="0.3">
@@ -6680,13 +9031,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -6696,95 +9047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="16.75" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -6802,16 +9065,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7004,7 +9267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
@@ -7022,16 +9285,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7068,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>174</v>
@@ -7082,7 +9345,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>66</v>
@@ -7096,7 +9359,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>66</v>
@@ -7110,7 +9373,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>66</v>
@@ -7124,7 +9387,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>66</v>
@@ -7138,7 +9401,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>66</v>
@@ -7152,7 +9415,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>84</v>
@@ -7166,13 +9429,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -7180,27 +9443,27 @@
         <v>50</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -7208,13 +9471,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -7222,13 +9485,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="54" x14ac:dyDescent="0.3">
@@ -7236,27 +9499,27 @@
         <v>50</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.3">
@@ -7264,13 +9527,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -7278,13 +9541,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -7292,13 +9555,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -7306,13 +9569,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -7320,13 +9583,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -7334,13 +9597,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -7348,13 +9611,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -7362,13 +9625,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -7376,13 +9639,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -7390,13 +9653,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -7404,13 +9667,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -7418,13 +9681,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="27" x14ac:dyDescent="0.3">
@@ -7432,13 +9695,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -7446,13 +9709,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -7460,13 +9723,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="27" x14ac:dyDescent="0.3">
@@ -7474,13 +9737,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -7488,13 +9751,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -7502,13 +9765,13 @@
         <v>15</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -7516,13 +9779,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -7530,13 +9793,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -7544,13 +9807,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -7558,13 +9821,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -7572,13 +9835,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -7586,13 +9849,13 @@
         <v>50</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -7600,13 +9863,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -7614,13 +9877,13 @@
         <v>50</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -7632,10 +9895,667 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>717</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>695</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>720</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>701</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>703</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>705</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>707</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>708</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>733</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>709</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>710</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>714</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>739</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>765</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>766</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>756</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>757</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>758</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>760</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>762</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>763</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>766</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>747</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>748</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>750</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>751</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>752</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>753</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>786</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>790</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="16.75" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7882,7 +10802,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -7892,7 +10812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -7924,13 +10844,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -7938,13 +10858,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -7952,13 +10872,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -7966,13 +10886,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -7980,13 +10900,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -7994,13 +10914,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -8008,13 +10928,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -8022,13 +10942,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -8042,7 +10962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -8246,1650 +11166,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:D36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="30.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.75" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>680</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A37:D37"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Diagram/001_Document/Interface_Define_TC_Creator.xlsx
+++ b/Diagram/001_Document/Interface_Define_TC_Creator.xlsx
@@ -9,34 +9,35 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22905" windowHeight="14670" tabRatio="881" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22905" windowHeight="14670" tabRatio="881" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="27" r:id="rId1"/>
     <sheet name="추적표" sheetId="28" r:id="rId2"/>
-    <sheet name="요구사항 식별자" sheetId="23" r:id="rId3"/>
-    <sheet name="구조설계 식별자" sheetId="24" r:id="rId4"/>
-    <sheet name="상세설계 식별자" sheetId="26" r:id="rId5"/>
-    <sheet name="Detail Function" sheetId="8" r:id="rId6"/>
-    <sheet name="ControlManger" sheetId="1" r:id="rId7"/>
-    <sheet name="ScreenInfo" sheetId="3" r:id="rId8"/>
-    <sheet name="ConfigSetting" sheetId="4" r:id="rId9"/>
-    <sheet name="Util" sheetId="11" r:id="rId10"/>
-    <sheet name="Popup" sheetId="10" r:id="rId11"/>
-    <sheet name="Dialog" sheetId="21" r:id="rId12"/>
-    <sheet name="Control" sheetId="5" r:id="rId13"/>
-    <sheet name="Handler" sheetId="6" r:id="rId14"/>
-    <sheet name="Gui" sheetId="7" r:id="rId15"/>
-    <sheet name="Python" sheetId="9" r:id="rId16"/>
-    <sheet name="ControlMenu" sheetId="14" r:id="rId17"/>
-    <sheet name="HandlerMenu" sheetId="13" r:id="rId18"/>
-    <sheet name="GuiMenu" sheetId="12" r:id="rId19"/>
-    <sheet name="ControlCenter" sheetId="15" r:id="rId20"/>
-    <sheet name="HandlerCenter" sheetId="16" r:id="rId21"/>
-    <sheet name="GuiCenter" sheetId="17" r:id="rId22"/>
-    <sheet name="ControlExcel" sheetId="18" r:id="rId23"/>
-    <sheet name="HandlerExcel" sheetId="19" r:id="rId24"/>
-    <sheet name="GuiExcel" sheetId="20" r:id="rId25"/>
+    <sheet name="용어 및 약어" sheetId="29" r:id="rId3"/>
+    <sheet name="요구사항 식별자" sheetId="23" r:id="rId4"/>
+    <sheet name="구조설계 식별자" sheetId="24" r:id="rId5"/>
+    <sheet name="상세설계 식별자" sheetId="26" r:id="rId6"/>
+    <sheet name="Detail Function" sheetId="8" r:id="rId7"/>
+    <sheet name="ControlManger" sheetId="1" r:id="rId8"/>
+    <sheet name="ScreenInfo" sheetId="3" r:id="rId9"/>
+    <sheet name="ConfigSetting" sheetId="4" r:id="rId10"/>
+    <sheet name="Util" sheetId="11" r:id="rId11"/>
+    <sheet name="Popup" sheetId="10" r:id="rId12"/>
+    <sheet name="Dialog" sheetId="21" r:id="rId13"/>
+    <sheet name="Control" sheetId="5" r:id="rId14"/>
+    <sheet name="Handler" sheetId="6" r:id="rId15"/>
+    <sheet name="Gui" sheetId="7" r:id="rId16"/>
+    <sheet name="Python" sheetId="9" r:id="rId17"/>
+    <sheet name="ControlMenu" sheetId="14" r:id="rId18"/>
+    <sheet name="HandlerMenu" sheetId="13" r:id="rId19"/>
+    <sheet name="GuiMenu" sheetId="12" r:id="rId20"/>
+    <sheet name="ControlCenter" sheetId="15" r:id="rId21"/>
+    <sheet name="HandlerCenter" sheetId="16" r:id="rId22"/>
+    <sheet name="GuiCenter" sheetId="17" r:id="rId23"/>
+    <sheet name="ControlExcel" sheetId="18" r:id="rId24"/>
+    <sheet name="HandlerExcel" sheetId="19" r:id="rId25"/>
+    <sheet name="GuiExcel" sheetId="20" r:id="rId26"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="958">
   <si>
     <t>Description</t>
   </si>
@@ -2563,14 +2564,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>구분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구사항 항목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SRS-REQ-0001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2714,14 +2707,6 @@
   </si>
   <si>
     <t>Working Path</t>
-  </si>
-  <si>
-    <t>VSM Node 표시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VSM Node 검색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
@@ -2921,11 +2906,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>요구사항(SRS)
-식별자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>요구사항(SRS) 식별자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2964,6 +2944,462 @@
   </si>
   <si>
     <t>정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS-REQ-0001</t>
+  </si>
+  <si>
+    <t>VSM Node 표시</t>
+  </si>
+  <si>
+    <t>VSM Node 검색</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0101</t>
+  </si>
+  <si>
+    <t>파싱 기능</t>
+  </si>
+  <si>
+    <t>엑셀 파일 파싱 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0102</t>
+  </si>
+  <si>
+    <t>VSM 파일 파싱 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0103</t>
+  </si>
+  <si>
+    <t>YML 파일 파싱 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0104</t>
+  </si>
+  <si>
+    <t>데이터 처리 기능</t>
+  </si>
+  <si>
+    <t>파싱 데이터 read/write 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0105</t>
+  </si>
+  <si>
+    <t>변환 데이터 read/write/erase/edit 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0106</t>
+  </si>
+  <si>
+    <t>Value 입력 기능</t>
+  </si>
+  <si>
+    <t>isInitialize 열 초기화 값 확인 및 설정 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0107</t>
+  </si>
+  <si>
+    <t>Input/Output 값 유효성 검사 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0108</t>
+  </si>
+  <si>
+    <t>Description 시트 정보 자동 입력 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0109</t>
+  </si>
+  <si>
+    <t>GenType 입력 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0110</t>
+  </si>
+  <si>
+    <t>자동 완성 기능</t>
+  </si>
+  <si>
+    <t>Matching table과 Value enum 자동 완성 제공 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0111</t>
+  </si>
+  <si>
+    <t>Manual TC 입력 정보에 대한 자동 완성 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0112</t>
+  </si>
+  <si>
+    <t>TCName 자동 완성 제공 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0113</t>
+  </si>
+  <si>
+    <t>TCName Result 값 자동 완성 제공 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0114</t>
+  </si>
+  <si>
+    <t>사양서 기반 키워드 지원 기능</t>
+  </si>
+  <si>
+    <t>Value Changed 키워드 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0115</t>
+  </si>
+  <si>
+    <t>[Sheet] 키워드 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0116</t>
+  </si>
+  <si>
+    <t>쉼표(,) 키워드 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0117</t>
+  </si>
+  <si>
+    <t>범위(~) 키워드 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0118</t>
+  </si>
+  <si>
+    <t>초과(&gt;) 키워드 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0119</t>
+  </si>
+  <si>
+    <t>미만(&lt;) 키워드 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0120</t>
+  </si>
+  <si>
+    <t>이상(&gt;=) 키워드 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0121</t>
+  </si>
+  <si>
+    <t>이하(&lt;=) 키워드 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0122</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0123</t>
+  </si>
+  <si>
+    <t>NOT (!) 키워드 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0124</t>
+  </si>
+  <si>
+    <t>Don’t care(D`) 키워드 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0125</t>
+  </si>
+  <si>
+    <t>timeout, MESSAGE_TIMEOUT 키워드 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0126</t>
+  </si>
+  <si>
+    <t>crc, CRC_ERROR 키워드 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0127</t>
+  </si>
+  <si>
+    <t>[Cal] 키워드 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0128</t>
+  </si>
+  <si>
+    <t>사용자 지정 기반 키워드 지원 기능</t>
+  </si>
+  <si>
+    <t>[NOT_TRIGGER] 키워드 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0129</t>
+  </si>
+  <si>
+    <t>[PRESET] 키워드 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0130</t>
+  </si>
+  <si>
+    <t>[DEPENDENT_ON] 키워드 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0131</t>
+  </si>
+  <si>
+    <t>Case 생성 기능</t>
+  </si>
+  <si>
+    <t>Result 열 기준 동일 값 처리 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0132</t>
+  </si>
+  <si>
+    <t>Default 생성 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0133</t>
+  </si>
+  <si>
+    <t>Negative(+Positive) 생성 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0134</t>
+  </si>
+  <si>
+    <t>엑셀 작성 순서 정렬 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0135</t>
+  </si>
+  <si>
+    <t>TC 파일 생성 기능</t>
+  </si>
+  <si>
+    <t>초기화(init)값 TC 생성 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0136</t>
+  </si>
+  <si>
+    <t>Result 열 기준 동일 값 TC 생성 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0137</t>
+  </si>
+  <si>
+    <t>config 값 TC 생성 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0138</t>
+  </si>
+  <si>
+    <t>TC파일내 고유 TC 명(name) 생성 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0139</t>
+  </si>
+  <si>
+    <t>AEM_init값 TC 생성 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0140</t>
+  </si>
+  <si>
+    <t>timeout, dump값 TC 생성 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0141</t>
+  </si>
+  <si>
+    <t>유효한 enum 값 기반 TC 생성 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0142</t>
+  </si>
+  <si>
+    <t>Private 시트 TC 생성 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0143</t>
+  </si>
+  <si>
+    <t>사용자 선택 항목(TCName) 기준 TC 생성 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0144</t>
+  </si>
+  <si>
+    <t>Manual TC 시트 정보 TC 생성 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0145</t>
+  </si>
+  <si>
+    <t>DEPENDENT_ON 데이터 TC 생성 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0146</t>
+  </si>
+  <si>
+    <t>시그널 값 주석 기재 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0147</t>
+  </si>
+  <si>
+    <t>팝업 표시 기능</t>
+  </si>
+  <si>
+    <t>입력 데이터 오류(자료형) 팝업 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0148</t>
+  </si>
+  <si>
+    <t>TC 케이스 생성 오류 팝업 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0149</t>
+  </si>
+  <si>
+    <t>로그 출력 기능</t>
+  </si>
+  <si>
+    <t>유효하지 않은 enum 값 미생성 정보 로그 출력 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0150</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0151</t>
+  </si>
+  <si>
+    <t>Validator 동작 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0152</t>
+  </si>
+  <si>
+    <t>화면 표시 기능</t>
+  </si>
+  <si>
+    <t>사용자 선택 항목(TCName열) 체크 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0153</t>
+  </si>
+  <si>
+    <t>메뉴 항목 (Multi Docker Run) 선택 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0154</t>
+  </si>
+  <si>
+    <t>도커 실행 상태 표시 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0155</t>
+  </si>
+  <si>
+    <t>도커 동작 기능</t>
+  </si>
+  <si>
+    <t>도커 실행 상태 확인 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0156</t>
+  </si>
+  <si>
+    <t>멀티 도커 기반 RunTC 동작 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0157</t>
+  </si>
+  <si>
+    <t>멀티 도커 동작 옵션 제공 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0158</t>
+  </si>
+  <si>
+    <t>기타 기능</t>
+  </si>
+  <si>
+    <t>엑셀 파일 열 명칭 변경</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0159</t>
+  </si>
+  <si>
+    <t>스크립트 명령어 옵션 변경</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0160</t>
+  </si>
+  <si>
+    <t>용어 변경</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0101 ~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항(SRS)식별자</t>
+  </si>
+  <si>
+    <t>구분</t>
+  </si>
+  <si>
+    <t>요구사항 항목</t>
+  </si>
+  <si>
+    <t>FLOW (=&gt;) 키워드 기능</t>
+  </si>
+  <si>
+    <t>TCName열 기준 케이스별 TC 생성 정보 로그 출력 기능</t>
+  </si>
+  <si>
+    <t>TC 파일 작성 순서(signal/value) 기반 동작 기능</t>
+  </si>
+  <si>
+    <t>SRS-REQ-0161</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS-REQ-0162</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Others 키워드 기능 (Others 케이스 생성 기능)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLI 동작 기능 검토 (TBD)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>약어</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2971,7 +3407,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3020,6 +3456,21 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3041,7 +3492,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3101,50 +3552,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3184,9 +3598,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3199,13 +3610,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3226,25 +3673,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3535,78 +3964,78 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="33" customWidth="1"/>
-    <col min="3" max="3" width="67.25" style="33" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="33"/>
+    <col min="1" max="1" width="2.625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="22" customWidth="1"/>
+    <col min="3" max="3" width="67.25" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
-        <v>812</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>813</v>
+      <c r="B2" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
+        <v>772</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="29"/>
+      <c r="C4" s="21" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="29"/>
+      <c r="C5" s="21" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="29" t="s">
+        <v>775</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="C3" s="32" t="s">
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="29"/>
+      <c r="C7" s="21" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="29"/>
+      <c r="C8" s="21" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="31"/>
-      <c r="C5" s="32" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
+      <c r="C9" s="21" t="s">
         <v>779</v>
       </c>
-      <c r="C6" s="32" t="s">
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="29"/>
+      <c r="C10" s="21" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="31"/>
-      <c r="C7" s="32" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="31"/>
-      <c r="C8" s="32" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
-        <v>782</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="31"/>
-      <c r="C10" s="32" t="s">
-        <v>784</v>
-      </c>
-    </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="31"/>
-      <c r="C11" s="32" t="s">
-        <v>746</v>
+      <c r="B11" s="29"/>
+      <c r="C11" s="21" t="s">
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -3622,6 +4051,212 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -3731,7 +4366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -3923,7 +4558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D67"/>
   <sheetViews>
@@ -4444,10 +5079,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="37"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
@@ -4879,7 +5514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -5267,7 +5902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -5487,7 +6122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -5651,7 +6286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -5773,7 +6408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
@@ -6371,7 +7006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -6591,7 +7226,329 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="13.25" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>692</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>800</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>693</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>800</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>694</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>801</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>695</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>696</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>697</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>698</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>699</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>700</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>701</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>702</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>803</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:4" ht="81" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>703</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>804</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:4" ht="81" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>704</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>804</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>705</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>706</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>707</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>708</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>709</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>710</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>803</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>803</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>806</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>806</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>944</v>
+      </c>
+      <c r="D25" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
@@ -7119,271 +8076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="13.25" style="29"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>802</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>803</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>804</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>694</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>805</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-    </row>
-    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>695</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>805</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-    </row>
-    <row r="4" spans="1:4" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
-        <v>696</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>806</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-    </row>
-    <row r="5" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>697</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-    </row>
-    <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
-        <v>698</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-    </row>
-    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
-        <v>699</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-    </row>
-    <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
-        <v>700</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
-        <v>701</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-    </row>
-    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
-        <v>702</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-    </row>
-    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
-        <v>703</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-    </row>
-    <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
-        <v>704</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>808</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-    </row>
-    <row r="13" spans="1:4" ht="81" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
-        <v>705</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>809</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-    </row>
-    <row r="14" spans="1:4" ht="81" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
-        <v>706</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>809</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-    </row>
-    <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
-        <v>707</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-    </row>
-    <row r="16" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>708</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
-        <v>709</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-    </row>
-    <row r="18" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
-        <v>710</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-    </row>
-    <row r="19" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
-        <v>711</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-    </row>
-    <row r="20" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>712</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-    </row>
-    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
-        <v>713</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>808</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-    </row>
-    <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
-        <v>714</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>808</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-    </row>
-    <row r="23" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
-        <v>715</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>811</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-    </row>
-    <row r="24" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
-        <v>716</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>811</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
@@ -7897,7 +8590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -8117,7 +8810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -8435,7 +9128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
@@ -9047,7 +9740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -9267,7 +9960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
@@ -9895,282 +10588,1118 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>956</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>955</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="27"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>957</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>955</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="27"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="27"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="27"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="27"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="27"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="27"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.25" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>801</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="17" t="s">
+        <v>945</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>946</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>947</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>715</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>693</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="25" t="s">
+        <v>717</v>
+      </c>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>694</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>717</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B4" s="31" t="s">
         <v>718</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="C4" s="25" t="s">
+        <v>719</v>
+      </c>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>695</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="25" t="s">
+        <v>720</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>696</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>720</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="25" t="s">
         <v>721</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>697</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="3" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="25" t="s">
         <v>722</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>698</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="3" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="25" t="s">
         <v>723</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>699</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="3" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="25" t="s">
         <v>724</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>700</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="3" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="25" t="s">
         <v>725</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>701</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="3" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="25" t="s">
         <v>726</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>702</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="3" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="25" t="s">
         <v>727</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>703</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="3" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="25" t="s">
         <v>728</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
         <v>704</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="3" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="24" t="s">
         <v>729</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
         <v>705</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="3" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="25" t="s">
         <v>730</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>706</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="1" t="s">
+      <c r="B16" s="31" t="s">
         <v>731</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="C16" s="25" t="s">
+        <v>732</v>
+      </c>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
         <v>707</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="25" t="s">
+        <v>731</v>
+      </c>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
         <v>708</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="25" t="s">
         <v>733</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>709</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="25" t="s">
         <v>734</v>
       </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>709</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
         <v>710</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="3" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="D20" s="25"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
         <v>711</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="3" t="s">
+      <c r="B21" s="31" t="s">
         <v>736</v>
       </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="C21" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
         <v>712</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="3" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="25" t="s">
+        <v>811</v>
+      </c>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>713</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>737</v>
       </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
-        <v>713</v>
-      </c>
-      <c r="B21" s="18" t="s">
+      <c r="C23" s="25" t="s">
         <v>738</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
         <v>714</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
-        <v>715</v>
-      </c>
-      <c r="B23" s="18" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
+        <v>812</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>813</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>814</v>
+      </c>
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
+        <v>815</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="25" t="s">
+        <v>816</v>
+      </c>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>817</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="D27" s="25"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
+        <v>819</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>821</v>
+      </c>
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
+        <v>822</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="25" t="s">
+        <v>823</v>
+      </c>
+      <c r="D29" s="25"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
+        <v>824</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>826</v>
+      </c>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
+        <v>827</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="25" t="s">
+        <v>828</v>
+      </c>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
+        <v>829</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="25" t="s">
+        <v>830</v>
+      </c>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="s">
+        <v>831</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="25" t="s">
+        <v>832</v>
+      </c>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
+        <v>833</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>834</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>835</v>
+      </c>
+      <c r="D34" s="25"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="s">
+        <v>836</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="25" t="s">
+        <v>837</v>
+      </c>
+      <c r="D35" s="25"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="s">
+        <v>838</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="25" t="s">
+        <v>839</v>
+      </c>
+      <c r="D36" s="25"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="25" t="s">
+        <v>841</v>
+      </c>
+      <c r="D37" s="25"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="23" t="s">
+        <v>842</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>844</v>
+      </c>
+      <c r="D38" s="25"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="23" t="s">
+        <v>845</v>
+      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="25" t="s">
+        <v>846</v>
+      </c>
+      <c r="D39" s="25"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="23" t="s">
+        <v>847</v>
+      </c>
+      <c r="B40" s="30"/>
+      <c r="C40" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="D40" s="25"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
+        <v>849</v>
+      </c>
+      <c r="B41" s="30"/>
+      <c r="C41" s="25" t="s">
+        <v>850</v>
+      </c>
+      <c r="D41" s="25"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="s">
+        <v>851</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="25" t="s">
+        <v>852</v>
+      </c>
+      <c r="D42" s="25"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="23" t="s">
+        <v>853</v>
+      </c>
+      <c r="B43" s="30"/>
+      <c r="C43" s="25" t="s">
+        <v>854</v>
+      </c>
+      <c r="D43" s="25"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="B44" s="30"/>
+      <c r="C44" s="25" t="s">
+        <v>856</v>
+      </c>
+      <c r="D44" s="25"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="23" t="s">
+        <v>857</v>
+      </c>
+      <c r="B45" s="30"/>
+      <c r="C45" s="25" t="s">
+        <v>858</v>
+      </c>
+      <c r="D45" s="25"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="23" t="s">
+        <v>859</v>
+      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="D46" s="25"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="23" t="s">
+        <v>860</v>
+      </c>
+      <c r="B47" s="30"/>
+      <c r="C47" s="25" t="s">
+        <v>861</v>
+      </c>
+      <c r="D47" s="25"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="23" t="s">
+        <v>862</v>
+      </c>
+      <c r="B48" s="30"/>
+      <c r="C48" s="25" t="s">
+        <v>863</v>
+      </c>
+      <c r="D48" s="25"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="23" t="s">
+        <v>864</v>
+      </c>
+      <c r="B49" s="30"/>
+      <c r="C49" s="25" t="s">
+        <v>865</v>
+      </c>
+      <c r="D49" s="25"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="23" t="s">
+        <v>866</v>
+      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="25" t="s">
+        <v>867</v>
+      </c>
+      <c r="D50" s="25"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="27" t="s">
+        <v>868</v>
+      </c>
+      <c r="B51" s="30"/>
+      <c r="C51" s="25" t="s">
+        <v>869</v>
+      </c>
+      <c r="D51" s="25"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
+        <v>952</v>
+      </c>
+      <c r="B52" s="30"/>
+      <c r="C52" s="38" t="s">
+        <v>953</v>
+      </c>
+      <c r="D52" s="25"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="23" t="s">
+        <v>870</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>871</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>872</v>
+      </c>
+      <c r="D53" s="25"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="23" t="s">
+        <v>873</v>
+      </c>
+      <c r="B54" s="30"/>
+      <c r="C54" s="25" t="s">
+        <v>874</v>
+      </c>
+      <c r="D54" s="25"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="23" t="s">
+        <v>875</v>
+      </c>
+      <c r="B55" s="30"/>
+      <c r="C55" s="25" t="s">
+        <v>876</v>
+      </c>
+      <c r="D55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="23" t="s">
+        <v>877</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>878</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>879</v>
+      </c>
+      <c r="D56" s="25"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="23" t="s">
+        <v>880</v>
+      </c>
+      <c r="B57" s="30"/>
+      <c r="C57" s="25" t="s">
+        <v>881</v>
+      </c>
+      <c r="D57" s="25"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="B58" s="30"/>
+      <c r="C58" s="25" t="s">
+        <v>883</v>
+      </c>
+      <c r="D58" s="25"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="23" t="s">
+        <v>884</v>
+      </c>
+      <c r="B59" s="30"/>
+      <c r="C59" s="25" t="s">
+        <v>885</v>
+      </c>
+      <c r="D59" s="25"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="23" t="s">
+        <v>886</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>887</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>888</v>
+      </c>
+      <c r="D60" s="25"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="23" t="s">
+        <v>889</v>
+      </c>
+      <c r="B61" s="30"/>
+      <c r="C61" s="25" t="s">
+        <v>890</v>
+      </c>
+      <c r="D61" s="25"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="23" t="s">
+        <v>891</v>
+      </c>
+      <c r="B62" s="30"/>
+      <c r="C62" s="25" t="s">
+        <v>892</v>
+      </c>
+      <c r="D62" s="25"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="23" t="s">
+        <v>893</v>
+      </c>
+      <c r="B63" s="30"/>
+      <c r="C63" s="25" t="s">
+        <v>894</v>
+      </c>
+      <c r="D63" s="25"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="23" t="s">
+        <v>895</v>
+      </c>
+      <c r="B64" s="30"/>
+      <c r="C64" s="25" t="s">
+        <v>896</v>
+      </c>
+      <c r="D64" s="25"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="23" t="s">
+        <v>897</v>
+      </c>
+      <c r="B65" s="30"/>
+      <c r="C65" s="25" t="s">
+        <v>898</v>
+      </c>
+      <c r="D65" s="25"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="23" t="s">
+        <v>899</v>
+      </c>
+      <c r="B66" s="30"/>
+      <c r="C66" s="25" t="s">
+        <v>900</v>
+      </c>
+      <c r="D66" s="25"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="23" t="s">
+        <v>901</v>
+      </c>
+      <c r="B67" s="30"/>
+      <c r="C67" s="25" t="s">
+        <v>902</v>
+      </c>
+      <c r="D67" s="25"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="23" t="s">
+        <v>903</v>
+      </c>
+      <c r="B68" s="30"/>
+      <c r="C68" s="25" t="s">
+        <v>904</v>
+      </c>
+      <c r="D68" s="25"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="23" t="s">
+        <v>905</v>
+      </c>
+      <c r="B69" s="30"/>
+      <c r="C69" s="25" t="s">
+        <v>906</v>
+      </c>
+      <c r="D69" s="25"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="B70" s="30"/>
+      <c r="C70" s="25" t="s">
+        <v>908</v>
+      </c>
+      <c r="D70" s="25"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="23" t="s">
+        <v>909</v>
+      </c>
+      <c r="B71" s="30"/>
+      <c r="C71" s="25" t="s">
+        <v>910</v>
+      </c>
+      <c r="D71" s="25"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="23" t="s">
+        <v>911</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>912</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>913</v>
+      </c>
+      <c r="D72" s="25"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="23" t="s">
+        <v>914</v>
+      </c>
+      <c r="B73" s="30"/>
+      <c r="C73" s="25" t="s">
+        <v>915</v>
+      </c>
+      <c r="D73" s="25"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="23" t="s">
+        <v>916</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>917</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>918</v>
+      </c>
+      <c r="D74" s="25"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="23" t="s">
+        <v>919</v>
+      </c>
+      <c r="B75" s="30"/>
+      <c r="C75" s="25" t="s">
+        <v>949</v>
+      </c>
+      <c r="D75" s="25"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="23" t="s">
+        <v>920</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>921</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>950</v>
+      </c>
+      <c r="D76" s="25"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="23" t="s">
+        <v>922</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>923</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>924</v>
+      </c>
+      <c r="D77" s="25"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="23" t="s">
+        <v>925</v>
+      </c>
+      <c r="B78" s="30"/>
+      <c r="C78" s="25" t="s">
+        <v>926</v>
+      </c>
+      <c r="D78" s="25"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="23" t="s">
+        <v>927</v>
+      </c>
+      <c r="B79" s="30"/>
+      <c r="C79" s="25" t="s">
+        <v>928</v>
+      </c>
+      <c r="D79" s="25"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="23" t="s">
+        <v>929</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>930</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>931</v>
+      </c>
+      <c r="D80" s="25"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="23" t="s">
+        <v>932</v>
+      </c>
+      <c r="B81" s="30"/>
+      <c r="C81" s="25" t="s">
+        <v>933</v>
+      </c>
+      <c r="D81" s="25"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="23" t="s">
+        <v>934</v>
+      </c>
+      <c r="B82" s="30"/>
+      <c r="C82" s="25" t="s">
+        <v>935</v>
+      </c>
+      <c r="D82" s="25"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="23" t="s">
+        <v>936</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>937</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>938</v>
+      </c>
+      <c r="D83" s="25"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="23" t="s">
+        <v>939</v>
+      </c>
+      <c r="B84" s="30"/>
+      <c r="C84" s="25" t="s">
+        <v>940</v>
+      </c>
+      <c r="D84" s="25"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="23" t="s">
+        <v>941</v>
+      </c>
+      <c r="B85" s="30"/>
+      <c r="C85" s="25" t="s">
+        <v>942</v>
+      </c>
+      <c r="D85" s="25"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="23" t="s">
+        <v>951</v>
+      </c>
+      <c r="B86" s="30"/>
+      <c r="C86" s="28" t="s">
+        <v>954</v>
+      </c>
+      <c r="D86" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="18">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B15"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B60:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B86"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10178,7 +11707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -10195,94 +11724,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>745</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>760</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>765</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>766</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>756</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>767</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>757</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>768</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>758</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>772</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>759</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>773</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>760</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>774</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>761</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>769</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>762</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>770</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>763</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>771</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -10293,7 +11822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -10310,148 +11839,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>760</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>743</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>745</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>764</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>775</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>766</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="B5" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>767</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="B7" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>748</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>768</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="B8" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>749</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>772</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="B9" s="13" t="s">
+        <v>789</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>750</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>773</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>751</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>774</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>752</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="B10" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>792</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>793</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>754</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>794</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>786</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>795</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>787</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>796</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>788</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>797</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>789</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>798</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>790</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>799</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
-        <v>791</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>800</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -10462,7 +11991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -10480,31 +12009,31 @@
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -10521,20 +12050,20 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10550,7 +12079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -10812,7 +12341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -10960,210 +12489,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Diagram/001_Document/Interface_Define_TC_Creator.xlsx
+++ b/Diagram/001_Document/Interface_Define_TC_Creator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22905" windowHeight="14670" tabRatio="881" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22905" windowHeight="14670" tabRatio="881" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="27" r:id="rId1"/>
@@ -38,6 +38,11 @@
     <sheet name="ControlExcel" sheetId="18" r:id="rId24"/>
     <sheet name="HandlerExcel" sheetId="19" r:id="rId25"/>
     <sheet name="GuiExcel" sheetId="20" r:id="rId26"/>
+    <sheet name="ExcelData" sheetId="30" r:id="rId27"/>
+    <sheet name="ExcelUtil" sheetId="31" r:id="rId28"/>
+    <sheet name="SignalDataManager" sheetId="32" r:id="rId29"/>
+    <sheet name="ExcelDataManager" sheetId="33" r:id="rId30"/>
+    <sheet name="TestCase" sheetId="34" r:id="rId31"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -49,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="1513">
   <si>
     <t>Description</t>
   </si>
@@ -3349,10 +3354,6 @@
     <t>용어 변경</t>
   </si>
   <si>
-    <t>SRS-REQ-0101 ~</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TBD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3400,6 +3401,1845 @@
   </si>
   <si>
     <t>약어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getSheetData</t>
+  </si>
+  <si>
+    <t>const int&amp; key</t>
+  </si>
+  <si>
+    <t>QMap&lt;int, QVariant&gt;</t>
+  </si>
+  <si>
+    <t>readSheetData</t>
+  </si>
+  <si>
+    <t>getEditingSheetData</t>
+  </si>
+  <si>
+    <t>readEditingSheetData</t>
+  </si>
+  <si>
+    <t>setSheetData</t>
+  </si>
+  <si>
+    <t>const int&amp; key, const QVariant&amp; value</t>
+  </si>
+  <si>
+    <t>writeSheetData</t>
+  </si>
+  <si>
+    <t>const QMap&lt;int, QVariant&gt;&amp; value</t>
+  </si>
+  <si>
+    <t>setEditingSheetData</t>
+  </si>
+  <si>
+    <t>writeEditingSheetData</t>
+  </si>
+  <si>
+    <t>시트별 화면 표시 엑셀 데이터 읽기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 시트별 화면 표시 엑셀 데이터 읽기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈한 엑셀 파일의 시트별 엑셀 데이터 읽기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈한 엑셀 파일의 전체 시트별 엑셀 데이터 읽기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈한 엑셀 파일의 시트별 엑셀 데이터 저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈한 엑셀 파일의 전체 시트별 엑셀 데이터 저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시트별 화면 표시 엑셀 데이터 저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 시트별 화면 표시 엑셀 데이터 저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>initPresetInfo</t>
+  </si>
+  <si>
+    <t>QMap&lt;QString, QPair&lt;QString, QString&gt;&gt;</t>
+  </si>
+  <si>
+    <t>isDescriptionDataInfo</t>
+  </si>
+  <si>
+    <t>isDescriptionValueCount</t>
+  </si>
+  <si>
+    <t>isDescriptionPreconditionCount</t>
+  </si>
+  <si>
+    <t>QList&lt;QPair&lt;QString, int&gt;&gt;</t>
+  </si>
+  <si>
+    <t>isKeywordPatternInfo</t>
+  </si>
+  <si>
+    <t>isKeywordString</t>
+  </si>
+  <si>
+    <t>isKeywordType</t>
+  </si>
+  <si>
+    <t>isComlumnIndex</t>
+  </si>
+  <si>
+    <t>isDataType</t>
+  </si>
+  <si>
+    <t>QPair&lt;int, int&gt;</t>
+  </si>
+  <si>
+    <t>isIGNElapsedType</t>
+  </si>
+  <si>
+    <t>isIGNElapsedName</t>
+  </si>
+  <si>
+    <t>QPair&lt;QStringList, QStringList&gt;</t>
+  </si>
+  <si>
+    <t>isConvertedIGNElapsedInfo</t>
+  </si>
+  <si>
+    <t>isConvertedKeywordType</t>
+  </si>
+  <si>
+    <t>isMaxValue</t>
+  </si>
+  <si>
+    <t>isValidMaxValue</t>
+  </si>
+  <si>
+    <t>pythonCall</t>
+  </si>
+  <si>
+    <t>writeExcelSheet</t>
+  </si>
+  <si>
+    <t>QList&lt;QVariantList&gt;</t>
+  </si>
+  <si>
+    <t>readPreset</t>
+  </si>
+  <si>
+    <t>getMergeStart</t>
+  </si>
+  <si>
+    <t>getMerge</t>
+  </si>
+  <si>
+    <t>getMergeEnd</t>
+  </si>
+  <si>
+    <t>getMergeInfos</t>
+  </si>
+  <si>
+    <t>getInitPreset</t>
+  </si>
+  <si>
+    <t>QJsonObject</t>
+  </si>
+  <si>
+    <t>getJsonRoot</t>
+  </si>
+  <si>
+    <t>getJsonSectionInfo</t>
+  </si>
+  <si>
+    <t>QMapStrStr</t>
+  </si>
+  <si>
+    <t>getPresetInfo</t>
+  </si>
+  <si>
+    <t>QMap&lt;QString, QMapStrStr&gt;</t>
+  </si>
+  <si>
+    <t>readPresetInfo</t>
+  </si>
+  <si>
+    <t>setMergeStart</t>
+  </si>
+  <si>
+    <t>setMerge</t>
+  </si>
+  <si>
+    <t>setMergeEnd</t>
+  </si>
+  <si>
+    <t>setMergeInfos</t>
+  </si>
+  <si>
+    <t>setInitPreset</t>
+  </si>
+  <si>
+    <t>setJsonRoot</t>
+  </si>
+  <si>
+    <t>setJsonSectionInfo</t>
+  </si>
+  <si>
+    <t>setPresetInfo</t>
+  </si>
+  <si>
+    <t>writePresetInfo</t>
+  </si>
+  <si>
+    <t>const int&amp; columnIndex</t>
+  </si>
+  <si>
+    <t>const int keywordType</t>
+  </si>
+  <si>
+    <t>const int&amp; columnIndex, QString&amp; inputData</t>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const int&amp; type</t>
+  </si>
+  <si>
+    <t>const QString&amp; dataTypeStr</t>
+  </si>
+  <si>
+    <t>const QString&amp; singalName</t>
+  </si>
+  <si>
+    <t>const int&amp; ignType</t>
+  </si>
+  <si>
+    <t>const QStringList&amp; ignOriginData</t>
+  </si>
+  <si>
+    <t>const bool&amp; toCustom, const int&amp; keywordType</t>
+  </si>
+  <si>
+    <t>const bool&amp; doubleType</t>
+  </si>
+  <si>
+    <t>const bool&amp; readFile, const QString&amp; filePath</t>
+  </si>
+  <si>
+    <t>const QString&amp; filePath, const bool&amp; convert</t>
+  </si>
+  <si>
+    <t>const QString&amp; filePath</t>
+  </si>
+  <si>
+    <t>const QString&amp; key</t>
+  </si>
+  <si>
+    <t>const QString&amp; MergeStart</t>
+  </si>
+  <si>
+    <t>const QString&amp; Merge</t>
+  </si>
+  <si>
+    <t>const QString&amp; MergeEnd</t>
+  </si>
+  <si>
+    <t>const QStringList&amp; MergeInfos</t>
+  </si>
+  <si>
+    <t>const bool&amp; InitPreset</t>
+  </si>
+  <si>
+    <t>const QJsonObject&amp; JsonRoot</t>
+  </si>
+  <si>
+    <t>const QStringList&amp; JsonSectionInfo</t>
+  </si>
+  <si>
+    <t>const QString&amp; key, const QMapStrStr&amp; value</t>
+  </si>
+  <si>
+    <t>const QMap&lt;QString, QMapStrStr&gt;&amp; value</t>
+  </si>
+  <si>
+    <t>isModuleFilePath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>const QString&amp; path, const QString&amp; module, const QString&amp; fileExtension</t>
+  </si>
+  <si>
+    <t>isModuleListFromJson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>const int&amp; appMode, const bool&amp; yml, const bool&amp; toUpper</t>
+  </si>
+  <si>
+    <t>isCurrentCellText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const int&amp; rowIndex, const int&amp; columnIndex</t>
+  </si>
+  <si>
+    <t>const QString&amp; signalName, const int&amp; dataType, const int&amp; keywordType, const QStringList&amp; inputData, const StringList&amp; valueEnum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 파일명, 모듈, 확장자를 확인하여 모듈 파일명을 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>App 모드(CV, PV)별 모듈명, 모듈 파일 경로 확인 하여 리스트 구성 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExcelData 에 저장되어 있는 Description 시트 정보 읽는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExcelData 에 저장되어 있는 Description 시트의 ValueCount 컬럼 정보 읽는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExcelData 에 저장되어 있는 Description 시트의 PreconditionCount 컬럼 정보 읽는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExcelData 에 저장되어 있는 시트의 Row, Column 위치의 셀 정보 읽는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼별 키워드 스트링, 키워드 인덱스 리스트 구성함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드 리스트 정보에서 키워드 타입별 키워드 스트링 정보 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 데이터 리스트에서 컬럼별 구성가능한 키워드와 비교하여 키워드 타입 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시트별 컬럼 인덱스 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 ign 정보에 매핑 되는 ign 시그널명 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 ign 시그널 명에 매핑 되는 ign 정보 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 ign 정보 리스트에서 매칭된 ign 변환 정보 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 키워드 타입을 Normal, Custom 키워드 타입으로 변환하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀에 입력가능한 최대값 문자열 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 정보 기준으로 매칭 되는 최대값 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬 코드 호출 및 결과 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀 데이터 시트 저장 함수(ExcelData)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀 파일 오픈하여 시트 데이터 구성, 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preset.json 파일을 읽어서 Preset 데이터 컨테이너(key, value) 로  구성 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preset 데이터 컨테이너에서 정보 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머지 시작 정보 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머지 중간 정보 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머지 마지막 정보 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 머치 리스트(MergeStart, Merge, MergeEnd) 정보 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preset 정보 컨테이너 구성 완료상태 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preset 파일 Json 저장 정보 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preset 파일 Json 섹션 저장 정보 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preset 정보 컨테이너에서 Preset 전체 데이터 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preset 정보 컨테이너에서 Preset 데이터 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머지 시작 정보 저장 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머지 중간 정보 저장 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머지 마지막 정보 저장 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 머치 리스트(MergeStart, Merge, MergeEnd) 정보 저장 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preset 정보 컨테이너 구성 완료상태 저장 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preset 파일 Json 저장 정보 저장 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preset 파일 Json 섹션 저장 정보 저장 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preset 정보 컨테이너에서 Preset 데이터 저장 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preset 정보 컨테이너에서 Preset 전체 데이터 저장 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSignalType</t>
+  </si>
+  <si>
+    <t>isSignalDataList</t>
+  </si>
+  <si>
+    <t>const QString&amp; signalName, const QStringList&amp; inputData, const QString&amp; vehicleType, int&amp; dataType</t>
+  </si>
+  <si>
+    <t>isSignalValueEnum</t>
+  </si>
+  <si>
+    <t>const QString&amp; signalName, const QString&amp; value</t>
+  </si>
+  <si>
+    <t>const bool&amp; toEnum, const QString&amp; signalName</t>
+  </si>
+  <si>
+    <t>isConvertedSignalDataValueEnum</t>
+  </si>
+  <si>
+    <t>const bool&amp; toEnum, const QString&amp; signalName, const QStringList&amp; valueEnum, QString&amp; matchingValue</t>
+  </si>
+  <si>
+    <t>QMap&lt;int, QPair&lt;QString, SignalData&gt;&gt;</t>
+  </si>
+  <si>
+    <t>isNormalInputSignalDataInfo</t>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const QPair&lt;QStringList, QStringList&gt;&amp; list</t>
+  </si>
+  <si>
+    <t>isTestCaseInputSignalDataInfo</t>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, ..., QMap&lt;QString, SignalData&gt;&amp; newSignalDataInfo;</t>
+  </si>
+  <si>
+    <t>isOtherInputSignalDataInfo</t>
+  </si>
+  <si>
+    <t>isOutputSignalDataInfo</t>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const QList&lt;QStringList&gt;&amp; list</t>
+  </si>
+  <si>
+    <t>isExcelDataValidation</t>
+  </si>
+  <si>
+    <t>testCode</t>
+  </si>
+  <si>
+    <t>const QVariantList&amp; arg</t>
+  </si>
+  <si>
+    <t>const QString&amp; vehicleName, const QStringList&amp; specType</t>
+  </si>
+  <si>
+    <t>isSignalFileList</t>
+  </si>
+  <si>
+    <t>const QString&amp; signalName, const QString&amp; vehicleType</t>
+  </si>
+  <si>
+    <t>isSFCCommonEnum</t>
+  </si>
+  <si>
+    <t>const QString&amp; info, const QString&amp; prefix</t>
+  </si>
+  <si>
+    <t>isParsingFileDataInfo</t>
+  </si>
+  <si>
+    <t>const QString&amp; signalName, const QStringList&amp; inputData, const QMap&lt;int, QStringList&gt;&amp; fileList, int&amp; dataType</t>
+  </si>
+  <si>
+    <t>isValidValueEnum</t>
+  </si>
+  <si>
+    <t>const QString&amp; signalName, const QMap&lt;int, QStringList&gt;&amp; dataInfo</t>
+  </si>
+  <si>
+    <t>isConvertedSignalDataMatchingTable</t>
+  </si>
+  <si>
+    <t>const bool&amp; toHex, const QString&amp; signalName, const QMap&lt;int, QStringList&gt;&amp; dataInfo</t>
+  </si>
+  <si>
+    <t>QList&lt;QStringList&gt;</t>
+  </si>
+  <si>
+    <t>parsingKeywordBlocks</t>
+  </si>
+  <si>
+    <t>const QStringList&amp; originData</t>
+  </si>
+  <si>
+    <t>parsingKeywordData</t>
+  </si>
+  <si>
+    <t>isCustomValueInfo</t>
+  </si>
+  <si>
+    <t>const QStringList&amp; originData, const bool&amp; normal</t>
+  </si>
+  <si>
+    <t>QList&lt;qint64&gt;</t>
+  </si>
+  <si>
+    <t>isNumber</t>
+  </si>
+  <si>
+    <t>const QStringList&amp; numberStrList, const QMap&lt;QString, qint64&gt;&amp; exception</t>
+  </si>
+  <si>
+    <t>QPair&lt;qint64, qint64&gt;</t>
+  </si>
+  <si>
+    <t>isMinMaxValue</t>
+  </si>
+  <si>
+    <t>const QStringList&amp; inputList, const bool&amp; maxSkip</t>
+  </si>
+  <si>
+    <t>isValidValueList</t>
+  </si>
+  <si>
+    <t>const int&amp; dataType, const int&amp; notTriggerType, const QStringList&amp; allData, const QMap&lt;int, QStringList&gt;&amp; dataInfo</t>
+  </si>
+  <si>
+    <t>isValidUniqueValue</t>
+  </si>
+  <si>
+    <t>const int&amp; dataType, const QMap&lt;int, QStringList&gt;&amp; dataInfo</t>
+  </si>
+  <si>
+    <t>isMultiValidUniqueValue</t>
+  </si>
+  <si>
+    <t>isExceptionSignal</t>
+  </si>
+  <si>
+    <t>isContainConfigSignal</t>
+  </si>
+  <si>
+    <t>const QString&amp; signalName, const int&amp; keywordType, const QPair&lt;QStringList, QStringList&gt;&amp; allList</t>
+  </si>
+  <si>
+    <t>isSignalDataType</t>
+  </si>
+  <si>
+    <t>const QString&amp; signalName, const SignalData&amp; signalData, QString&amp; maxValue</t>
+  </si>
+  <si>
+    <t>QMap&lt;QString, SignalData&gt;</t>
+  </si>
+  <si>
+    <t>isSignalDataInfo</t>
+  </si>
+  <si>
+    <t>const QStringList&amp; signalList, const QStringList&amp; dataList, QMap&lt;QString, QMap&lt;int, QStringList&gt;&gt;&amp; dataInfo</t>
+  </si>
+  <si>
+    <t>isConvertedValueData</t>
+  </si>
+  <si>
+    <t>const QString&amp; signalName, const int&amp; dataType, const bool&amp; normal, const QStringList&amp; originData, const QStringList&amp; otherAllData</t>
+  </si>
+  <si>
+    <t>QMap&lt;int, QPair&lt;QStringList, QStringList&gt;&gt;</t>
+  </si>
+  <si>
+    <t>isConvertedEnumData</t>
+  </si>
+  <si>
+    <t>const QString&amp; signalName, const SignalData&amp; signalData, const bool&amp; configState</t>
+  </si>
+  <si>
+    <t>isConvertedExceptionData</t>
+  </si>
+  <si>
+    <t>const QString&amp; signalName, const QMap&lt;int, QStringList&gt;&amp; dataInfo, const QStringList&amp; inputData</t>
+  </si>
+  <si>
+    <t>isSortingInputSignalList</t>
+  </si>
+  <si>
+    <t>const QMap&lt;QString, SignalData&gt;&amp; dataInfo, const QStringList&amp; signalList</t>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const bool&amp; all</t>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const QString&amp; tcName</t>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const QString&amp; tcName, QString&amp; genTypeStr</t>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const QString&amp; tcName, const QString&amp; resultName</t>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const QString&amp; tcName, ..., const bool&amp; checkOthers</t>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const QString&amp; tcName, ..., const QString&amp; caseName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const QString&amp; configName, const bool&amp; allData, const bool&amp; removeMerge </t>
+  </si>
+  <si>
+    <t>const QString&amp; tcName, const QString&amp; resultName</t>
+  </si>
+  <si>
+    <t>QList&lt;ManualData&gt;</t>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const QString&amp; tcName, ..., const bool&amp; insertBefore</t>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const QString&amp; tcName, ..., const QList&lt;QStringList&gt;&amp; outputList</t>
+  </si>
+  <si>
+    <t>const QString&amp; configName, const QMap&lt;QString, QString&gt;&amp; inputList</t>
+  </si>
+  <si>
+    <t>QMap&lt;int, QList&lt;QMapIntStrList&gt;&gt;</t>
+  </si>
+  <si>
+    <t>QList&lt;QMapIntStrList&gt;</t>
+  </si>
+  <si>
+    <t>QMap&lt;int, QList&lt;InsertData&gt;&gt;</t>
+  </si>
+  <si>
+    <t>QList&lt;InsertData&gt;</t>
+  </si>
+  <si>
+    <t>const QStringListaa&amp; MergeInfos</t>
+  </si>
+  <si>
+    <t>const int&amp; key, const int&amp; value</t>
+  </si>
+  <si>
+    <t>const QList&lt;QMapIntStrList&gt;&amp; value</t>
+  </si>
+  <si>
+    <t>const QMap&lt;int, QList&lt;InsertData&gt;&gt;&amp; value</t>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const bool&amp; appendMergeInfo</t>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const int&amp; columnIndex</t>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const int&amp; columnIndex, const bool&amp; origin, const bool&amp; log</t>
+  </si>
+  <si>
+    <t>const QStringList&amp; dataList, const QString&amp; foundStr</t>
+  </si>
+  <si>
+    <t>const QStringList&amp; data, const bool&amp; removeWhitespace</t>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const QString&amp; tcName, const QString&amp; resultName, const QString&amp; caseName, const bool&amp; origin, const bool&amp; log</t>
+  </si>
+  <si>
+    <t>const QStringList&amp; signalList, const QStringList&amp; dataList</t>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const QString&amp; tcName, const QString&amp; resultName, const QString&amp; caseName</t>
+  </si>
+  <si>
+    <t>QMapIntStrList</t>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const QVariantList&amp; sheetData</t>
+  </si>
+  <si>
+    <t>const QPair&lt;QStringList, QStringList&gt;&amp; inputList, const QList&lt;QStringList&gt;&amp; outputList</t>
+  </si>
+  <si>
+    <t>isTCNameDataList</t>
+  </si>
+  <si>
+    <t>isCheckData</t>
+  </si>
+  <si>
+    <t>isGenTypeData</t>
+  </si>
+  <si>
+    <t>isVehicleTypeData</t>
+  </si>
+  <si>
+    <t>isConfigData</t>
+  </si>
+  <si>
+    <t>isResultDataList</t>
+  </si>
+  <si>
+    <t>isCaseDataList</t>
+  </si>
+  <si>
+    <t>isInputDataList</t>
+  </si>
+  <si>
+    <t>isInputDataWithoutCaseList</t>
+  </si>
+  <si>
+    <t>isOutputDataList</t>
+  </si>
+  <si>
+    <t>isConfigDataList</t>
+  </si>
+  <si>
+    <t>isDependentDataList</t>
+  </si>
+  <si>
+    <t>isManualDataList</t>
+  </si>
+  <si>
+    <t>reloadExcelData</t>
+  </si>
+  <si>
+    <t>writeExcelSheetData</t>
+  </si>
+  <si>
+    <t>updateInputDataInfo</t>
+  </si>
+  <si>
+    <t>updateOutputDataInfo</t>
+  </si>
+  <si>
+    <t>isValidConfigCheck</t>
+  </si>
+  <si>
+    <t>getExcelSheetData</t>
+  </si>
+  <si>
+    <t>readExcelSheetData</t>
+  </si>
+  <si>
+    <t>getInsertSheetData</t>
+  </si>
+  <si>
+    <t>readInsertSheetData</t>
+  </si>
+  <si>
+    <t>writeInsertSheetData</t>
+  </si>
+  <si>
+    <t>isSheetDataInfo</t>
+  </si>
+  <si>
+    <t>isConvertedExcelData</t>
+  </si>
+  <si>
+    <t>isOriginSheetData</t>
+  </si>
+  <si>
+    <t>isInsertSheetData</t>
+  </si>
+  <si>
+    <t>isExcelSheetData</t>
+  </si>
+  <si>
+    <t>isIndexOf</t>
+  </si>
+  <si>
+    <t>isParsingDataList</t>
+  </si>
+  <si>
+    <t>isRowIndexInfo</t>
+  </si>
+  <si>
+    <t>isConvertedToEnum</t>
+  </si>
+  <si>
+    <t>isCaseIndex</t>
+  </si>
+  <si>
+    <t>updateParsingExcelData</t>
+  </si>
+  <si>
+    <t>reconstructInputData</t>
+  </si>
+  <si>
+    <t>QStringList arguments</t>
+  </si>
+  <si>
+    <t>bool appExit</t>
+  </si>
+  <si>
+    <t>QMap&lt;QString, QString&gt;</t>
+  </si>
+  <si>
+    <t>QPairString</t>
+  </si>
+  <si>
+    <t>QMap&lt;int, QPairString&gt;</t>
+  </si>
+  <si>
+    <t>const int&amp; ExcuteType</t>
+  </si>
+  <si>
+    <t>const QStringList&amp; Arguments</t>
+  </si>
+  <si>
+    <t>const bool&amp; AllModuleSelect</t>
+  </si>
+  <si>
+    <t>const int&amp; SelectAppMode</t>
+  </si>
+  <si>
+    <t>const QStringList&amp; SelectModules</t>
+  </si>
+  <si>
+    <t>const QStringList&amp; RemainingModules</t>
+  </si>
+  <si>
+    <t>const QString&amp; EditingModule</t>
+  </si>
+  <si>
+    <t>const QString&amp; key, const QString&amp; value</t>
+  </si>
+  <si>
+    <t>const QMap&lt;QString, QString&gt;&amp; value</t>
+  </si>
+  <si>
+    <t>const QStringList&amp; GenTCInfo</t>
+  </si>
+  <si>
+    <t>const bool&amp; GenTCResult</t>
+  </si>
+  <si>
+    <t>const bool&amp; ThreadRunState</t>
+  </si>
+  <si>
+    <t>const int&amp; key, const QPairString&amp; value</t>
+  </si>
+  <si>
+    <t>const QMap&lt;int, QPairString&gt;&amp; value</t>
+  </si>
+  <si>
+    <t>int excuteType</t>
+  </si>
+  <si>
+    <t>int excuteType, QString text</t>
+  </si>
+  <si>
+    <t>int excuteType, QStringList itemList</t>
+  </si>
+  <si>
+    <t>int excuteType, QStringList options</t>
+  </si>
+  <si>
+    <t>bool editingModule</t>
+  </si>
+  <si>
+    <t>QList&lt;QVariantList&gt; sheetDataList</t>
+  </si>
+  <si>
+    <t>QThread* thread, QWaitCondition&amp; waitCondition, QMutex&amp; mutex, int type</t>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>getExcuteType</t>
+  </si>
+  <si>
+    <t>getArguments</t>
+  </si>
+  <si>
+    <t>getArgumentsAllModuleSelect</t>
+  </si>
+  <si>
+    <t>getSelectAppMode</t>
+  </si>
+  <si>
+    <t>getSelectModules</t>
+  </si>
+  <si>
+    <t>getRemainingModules</t>
+  </si>
+  <si>
+    <t>getEditingModule</t>
+  </si>
+  <si>
+    <t>getModuleList</t>
+  </si>
+  <si>
+    <t>readModuleList</t>
+  </si>
+  <si>
+    <t>getGenTCInfo</t>
+  </si>
+  <si>
+    <t>getGenTCResult</t>
+  </si>
+  <si>
+    <t>getThreadRunState</t>
+  </si>
+  <si>
+    <t>getGenTCResultInfo</t>
+  </si>
+  <si>
+    <t>readGenTCResultInfo</t>
+  </si>
+  <si>
+    <t>setExcuteType</t>
+  </si>
+  <si>
+    <t>setArguments</t>
+  </si>
+  <si>
+    <t>setArgumentsAllModuleSelect</t>
+  </si>
+  <si>
+    <t>setSelectAppMode</t>
+  </si>
+  <si>
+    <t>setSelectModules</t>
+  </si>
+  <si>
+    <t>setRemainingModules</t>
+  </si>
+  <si>
+    <t>setEditingModule</t>
+  </si>
+  <si>
+    <t>setModuleList</t>
+  </si>
+  <si>
+    <t>writeModuleList</t>
+  </si>
+  <si>
+    <t>setGenTCInfo</t>
+  </si>
+  <si>
+    <t>setGenTCResult</t>
+  </si>
+  <si>
+    <t>setThreadRunState</t>
+  </si>
+  <si>
+    <t>setGenTCResultInfo</t>
+  </si>
+  <si>
+    <t>writeGenTCResultInfo</t>
+  </si>
+  <si>
+    <t>excuteTestCase</t>
+  </si>
+  <si>
+    <t>updateTestCaseExcuteInfo</t>
+  </si>
+  <si>
+    <t>parsingOptions</t>
+  </si>
+  <si>
+    <t>parsingAppMode</t>
+  </si>
+  <si>
+    <t>parsingModules</t>
+  </si>
+  <si>
+    <t>parsingInputArguments</t>
+  </si>
+  <si>
+    <t>terminateApplicaton</t>
+  </si>
+  <si>
+    <t>drawTerminalMenu</t>
+  </si>
+  <si>
+    <t>selectMultipleOptionsWithNumbers</t>
+  </si>
+  <si>
+    <t>isModuleList</t>
+  </si>
+  <si>
+    <t>runThread</t>
+  </si>
+  <si>
+    <t>controlThread</t>
+  </si>
+  <si>
+    <t>signalTestCaseCompleted</t>
+  </si>
+  <si>
+    <t>signalGenTCInfo</t>
+  </si>
+  <si>
+    <t>int type, bool sheetReload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int resultType, int current, int total, QStringList info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 시그널 문자열에 매칭되는 시그널 타입 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 데이터 타입 문자열에 매칭되는 데이터 자료형 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 정보 기준으로 확인 된 시그널 정보 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 시그널명과 ValueEnum 데이터를 확인하여 Enum 이면 Hex 로, Hex 면 Enum으로 변환 하고 확인하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 시그널명의 ValueEnum 데이터를 확인하여 Enum, Hex 로 변환하여 확인하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 시그널명, ValueEnum 데이터를 확인하여 Enum, Hex 로 변환하여 확인하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력된 시트, 시그널 정보 리스트를 특정 데이터로 변환하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력된 시트, 시그널/데이터 리스트를 특정 데이터로 변환하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력된 시트, 시그널/데이터 리스트를 특정 데이터로 변환하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 시트에 입려된 시그널, 데이터의 유효성을 검사하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 시그널명 기준으로 yml 파일 경로를 확인 하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 시그널명, 스펙 타입 기준으로 vsm 파일 경로를 확인 하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 정보 기준으로 yml, vsm 파일 경로를 확인 하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 yml 파일 기준으로 CommonEnum 파일 경로 확인 하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 정보 기준으로 시그널의 데이터를 파일(yml, vsm)에서 파싱하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 정보 기준으로 ValueEnum 유효성 검사하여 데이터 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 데이터리스트에서 키워드 포함 여부 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 정보 기준으로 MatchingTable 의 데이터를 변환(Hex, Enum)하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 데이터리스트에서 키워드 정보를 찾아서 키워드, 데이터 컨테이너 데이터로 파싱하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 정보 기준으로 커스텀 키워드를 확인하여 유효한 데이터로 파싱 및 구성 하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 숫자 문자열을 숫자로 변환하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 숫자 문자열에서 최소, 최대값을 변환하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 멀티 키워드 데이터를 유효하지 않은 하나의 값으로 변환하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 단일 키워드 데이터를 유효하지 않은 하나의 값으로 변환하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 값 데이터를 유효한 하나의 값으로 변환하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외 처리(collect, delay) 시그널인지 확인하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 정보 기준으로 [CustomConfig] 키워드 확인하여 키워드 타입 변환 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 정보 기준으로 시그널 데이터 타입 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 정보 기준으로 시그널 데이터 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 정보 기준으로 입력 값이 enum 타입이면 특정 데이터로 변환하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 정보 기준으로 입력 값이 value 타입이면 특정 데이터로 변환하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 정보 기준으로 입력 값이 특정 예외처리(timeout, crc) 값인 경우 유효한 데이터로 변환하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 정보 기준 시그널, 데이터를 시그널명으로 정렬하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시트별 Check 컬럼이 체크가 되어 있는지 확인하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configs 시트에서 입력 정보 기준으로 유효한 데이터 구성 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시트별 TCName 컬럼의 데이터 구성 함수</t>
+  </si>
+  <si>
+    <t>시트별 GenType 컬럼의 데이터 구성 함수</t>
+  </si>
+  <si>
+    <t>시트별 VehicleType 컬럼의 데이터 구성 함수</t>
+  </si>
+  <si>
+    <t>시트별 Config 컬럼의 데이터 구성 함수</t>
+  </si>
+  <si>
+    <t>시트별 Result 컬럼의 데이터 구성 함수</t>
+  </si>
+  <si>
+    <t>시트별 Case 컬럼의 데이터 구성 함수</t>
+  </si>
+  <si>
+    <t>시트별 TCName, Resulst, Case 기준 InputSignal, InputData 컬럼의 데이터 구성 함수</t>
+  </si>
+  <si>
+    <t>시트별 TCName, Resulst 기준 OutputSignal, Init, OutputData 컬럼의 데이터 구성 함수</t>
+  </si>
+  <si>
+    <t>시트별 TCName 기준 InputSignal, InputData 컬럼의 데이터를 확인하여 TCName, Resulst, Case 기준 InputSignal, InputData 컬럼의 데이터를 삭제한 데이터 구성 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manual 시트 전체 유효한 데이터 구성 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DependentOn 시트에서 입력 정보 기준으로 유효한 데이터 구성 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExcelData 에 저장되어 있는 시트 정보를 내부 클래스에서 사용가능한 데이터 형태로 변화하여 저장하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부 클래스에 저장되어 있는 데이터를 ExcelData 에 저장하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputSignal, InputData 리스트 정보를 내부 클래스에 저장하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutputSignal, Iinit, OutpputData 리스트 정보를 내부 클래스에 저장하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력된 정보와 Configs 시트에 저장되어 있는 데이터를 비교해서 유효성 체크하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setMergeStart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setMerge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setMergeEnd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setMergeInfos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setExcelSheetData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setInsertSheetData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 내부에서 사용하는 데이터로 변환한 데이터를 확인 하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 내부에서 사용하는 데이터로 변환한 데이터를 타입 별로 확인 하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 내부에 저장된 Input 데이터 정보를 타입 별로 확인 하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 내부에 저장된 Input 데이터 정보를 확인 하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 내부에서 사용하는 데이터로 변환하여 저장하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 내부에서 사용하는 데이터로 변환한 데이터를 타입 별로 저장 하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 내부에서 사용하는 데이터로 변환한 데이터를 저장 하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 내부에 저장된 Input 데이터 정보를 타입 별로 저장 하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 내부에 저장된 Input 데이터 정보를 저장 하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 내부에서 사용하는 데이터로 저장된 정보를 ExcelData 형태로 구성 하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 내부에서 사용하는 데이터로 저장된 정보를 시트 별로 확인 하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 내부에 저장된 시트 정보를 확인 하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 내부에 저장된(InsertData, OriginData) 데이터를 시트별, 컬럼별로 확인하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력된 데이터 정보에서 유효한 데이터만 구성하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력된 데이터 정보에서 유효한 인덱스 정보만 구성하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력된 정보 기반으로 유효한 데이터 리스트 구성 하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력된 정보(signal, data) 리스트 기반으로 value 값을 enum으로 변경하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력된 정보 기반으로 매칭 되는 case row 인덱스 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력된 ExcelData 시트 데이터를 클래스 내부에서 사용가능한 데이터로 변환하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력된 Input, Output 리스트 정보를 기준으로 유효한 데이터로 구성하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈 정보(모듈명, 모듈 파일경로)를 타입별로 확인 하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈 정보(모듈명, 모듈 파일경로)를 확인 하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC Gen 실행 정보 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC Gen 결과 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC Gen 전체 모듈 결과(모듈명, TC 파일경로) 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰레드 동작 상태 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC Gen 타입별 결과(모듈명, TC 파일경로) 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈 정보(모듈명, 모듈 파일경로)를 타입별로 저장 하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈 정보(모듈명, 모듈 파일경로)를 저장 하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC Gen 실행 정보 저장 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC Gen 결과 저장 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰레드 동작 상태 저장 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC Gen 타입별 결과(모듈명, TC 파일경로) 저장 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC Gen 전체 모듈 결과(모듈명, TC 파일경로) 저장 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC Gen 시작 함수</t>
+  </si>
+  <si>
+    <t>TC Gen 종료 함수</t>
+  </si>
+  <si>
+    <t>TC Gen 실행 타입 확인 함수</t>
+  </si>
+  <si>
+    <t>TC Gen 실행시 입력된 argument 확인 함수</t>
+  </si>
+  <si>
+    <t>TC Gen 실행시 전체 모듈에 대한 실행인지 확인 함수</t>
+  </si>
+  <si>
+    <t>TC Gen 실행시 AppMode(CV, PV) 확인 함수</t>
+  </si>
+  <si>
+    <t>TC Gen 실행시 선택된 모듈 확인 함수</t>
+  </si>
+  <si>
+    <t>TC Gen 실행시 남은 모듈 확인 함수</t>
+  </si>
+  <si>
+    <t>TC Gen 실행시 엑셀 파일 편집 상태에서 실행인지 확인 함수</t>
+  </si>
+  <si>
+    <t>TC Gen 실행 타입별로 동작 수행 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC Gen 실행 타입별 결과 정보 표시(팝업, 로그) 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC Gen 실행 타입 저장 함수</t>
+  </si>
+  <si>
+    <t>TC Gen 실행시 입력된 argument 저장 함수</t>
+  </si>
+  <si>
+    <t>TC Gen 실행시 전체 모듈에 대한 실행인지 저장 함수</t>
+  </si>
+  <si>
+    <t>TC Gen 실행시 AppMode(CV, PV) 저장 함수</t>
+  </si>
+  <si>
+    <t>TC Gen 실행시 선택된 모듈 저장 함수</t>
+  </si>
+  <si>
+    <t>TC Gen 실행시 남은 모듈 저장 함수</t>
+  </si>
+  <si>
+    <t>TC Gen 실행시 엑셀 파일 편집 상태에서 실행인지 저장 함수</t>
+  </si>
+  <si>
+    <t>TC Gen 실행시 입력된 옵션 파싱하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC Gen 실행시 입력된 AppMode(CV, PV) 파싱하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC Gen 실행시 입력된 AppMode(CV, PV) 파싱하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC Gen 실행시 입력된 argument 를 타입별(AppMode, Module) 파싱 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC Gen 실행시 이전 실행된 Application 종료 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLI 모드로 TC Gen 실행시 메뉴 화면 표시 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLI 모드 메뉴 화면에서 선택된 정보 파싱 및 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 모듈 정보(모듈명, 모듈 파일경로) 확인 및 저장 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExcelData 에 저장된 시트 정보 확인 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExcelData 에 저장된 시트 정보 저장 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 모듈 정보 기반으로 엑셀 파일 오픈 하여 시트 정보 업데이트 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰레드 처리 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰레드 제어 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC Gen 실행 정보 전달을 위한 시그널 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC Gen 실행 완료 시그널 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLD-DES-0010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC Gen Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLD-DET-0016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC Gen Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>testFunction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ControlManer Class 초기화
+2. 현재 모드 설정
+3. MenuControl 생성 및 Menu 초기 화면 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLD-DET-0102</t>
+  </si>
+  <si>
+    <t>LLD-DET-0103</t>
+  </si>
+  <si>
+    <t>LLD-DET-0104</t>
+  </si>
+  <si>
+    <t>LLD-DET-0105</t>
+  </si>
+  <si>
+    <t>LLD-DET-0106</t>
+  </si>
+  <si>
+    <t>LLD-DET-0107</t>
+  </si>
+  <si>
+    <t>LLD-DET-0110</t>
+  </si>
+  <si>
+    <t>LLD-DET-0111</t>
+  </si>
+  <si>
+    <t>LLD-DET-0112</t>
+  </si>
+  <si>
+    <t>LLD-DET-0113</t>
+  </si>
+  <si>
+    <t>LLD-DET-0114</t>
+  </si>
+  <si>
+    <t>LLD-DET-0115</t>
+  </si>
+  <si>
+    <t>LLD-DET-0116</t>
+  </si>
+  <si>
+    <t>LLD-DET-0117</t>
+  </si>
+  <si>
+    <t>LLD-DET-0118</t>
+  </si>
+  <si>
+    <t>LLD-DET-0119</t>
+  </si>
+  <si>
+    <t>LLD-DET-0120</t>
+  </si>
+  <si>
+    <t>LLD-DET-0121</t>
+  </si>
+  <si>
+    <t>LLD-DET-0122</t>
+  </si>
+  <si>
+    <t>LLD-DET-0123</t>
+  </si>
+  <si>
+    <t>LLD-DET-0124</t>
+  </si>
+  <si>
+    <t>LLD-DET-0125</t>
+  </si>
+  <si>
+    <t>LLD-DET-0126</t>
+  </si>
+  <si>
+    <t>LLD-DET-0127</t>
+  </si>
+  <si>
+    <t>LLD-DET-0128</t>
+  </si>
+  <si>
+    <t>LLD-DET-0129</t>
+  </si>
+  <si>
+    <t>LLD-DET-0130</t>
+  </si>
+  <si>
+    <t>LLD-DET-0131</t>
+  </si>
+  <si>
+    <t>LLD-DET-0132</t>
+  </si>
+  <si>
+    <t>LLD-DET-0133</t>
+  </si>
+  <si>
+    <t>LLD-DET-0134</t>
+  </si>
+  <si>
+    <t>LLD-DET-0135</t>
+  </si>
+  <si>
+    <t>LLD-DET-0136</t>
+  </si>
+  <si>
+    <t>LLD-DET-0137</t>
+  </si>
+  <si>
+    <t>LLD-DET-0138</t>
+  </si>
+  <si>
+    <t>LLD-DET-0139</t>
+  </si>
+  <si>
+    <t>LLD-DET-0140</t>
+  </si>
+  <si>
+    <t>LLD-DET-0141</t>
+  </si>
+  <si>
+    <t>LLD-DET-0142</t>
+  </si>
+  <si>
+    <t>LLD-DET-0143</t>
+  </si>
+  <si>
+    <t>LLD-DET-0144</t>
+  </si>
+  <si>
+    <t>LLD-DET-0145</t>
+  </si>
+  <si>
+    <t>LLD-DET-0146</t>
+  </si>
+  <si>
+    <t>LLD-DET-0147</t>
+  </si>
+  <si>
+    <t>LLD-DET-0148</t>
+  </si>
+  <si>
+    <t>LLD-DET-0149</t>
+  </si>
+  <si>
+    <t>LLD-DET-0150</t>
+  </si>
+  <si>
+    <t>LLD-DET-0151</t>
+  </si>
+  <si>
+    <t>LLD-DET-0152</t>
+  </si>
+  <si>
+    <t>LLD-DET-0153</t>
+  </si>
+  <si>
+    <t>LLD-DET-0154</t>
+  </si>
+  <si>
+    <t>LLD-DET-0155</t>
+  </si>
+  <si>
+    <t>LLD-DET-0156</t>
+  </si>
+  <si>
+    <t>LLD-DET-0157</t>
+  </si>
+  <si>
+    <t>LLD-DET-0158</t>
+  </si>
+  <si>
+    <t>LLD-DET-0159</t>
+  </si>
+  <si>
+    <t>LLD-DET-0160</t>
+  </si>
+  <si>
+    <t>LLD-DET-0161</t>
+  </si>
+  <si>
+    <t>LLD-DET-0162</t>
+  </si>
+  <si>
+    <t>LLD-DET-0163</t>
+  </si>
+  <si>
+    <t>LLD-DET-0164</t>
+  </si>
+  <si>
+    <t>LLD-DET-0165</t>
+  </si>
+  <si>
+    <t>LLD-DET-0166</t>
+  </si>
+  <si>
+    <t>LLD-DET-0167</t>
+  </si>
+  <si>
+    <t>LLD-DET-0168</t>
+  </si>
+  <si>
+    <t>LLD-DET-0169</t>
+  </si>
+  <si>
+    <t>LLD-DET-0170</t>
+  </si>
+  <si>
+    <t>LLD-DET-0171</t>
+  </si>
+  <si>
+    <t>LLD-DET-0172</t>
+  </si>
+  <si>
+    <t>LLD-DET-0173</t>
+  </si>
+  <si>
+    <t>LLD-DET-0174</t>
+  </si>
+  <si>
+    <t>LLD-DET-0175</t>
+  </si>
+  <si>
+    <t>LLD-DET-0176</t>
+  </si>
+  <si>
+    <t>LLD-DET-0177</t>
+  </si>
+  <si>
+    <t>LLD-DET-0178</t>
+  </si>
+  <si>
+    <t>LLD-DET-0179</t>
+  </si>
+  <si>
+    <t>LLD-DET-0180</t>
+  </si>
+  <si>
+    <t>LLD-DET-0181</t>
+  </si>
+  <si>
+    <t>LLD-DET-0182</t>
+  </si>
+  <si>
+    <t>LLD-DET-0183</t>
+  </si>
+  <si>
+    <t>LLD-DET-0184</t>
+  </si>
+  <si>
+    <t>LLD-DET-0100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLD-DET-0101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLD-DET-0109</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLD-DET-0108</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3558,7 +5398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3613,9 +5453,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3646,14 +5483,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3672,9 +5524,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3959,15 +5808,15 @@
   <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C11"/>
+      <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="22" customWidth="1"/>
-    <col min="3" max="3" width="67.25" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="2.625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="21" customWidth="1"/>
+    <col min="3" max="3" width="67.25" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
@@ -3979,62 +5828,62 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="33" t="s">
         <v>772</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="29"/>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="20" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="20" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="33" t="s">
         <v>775</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="20" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="20" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="33" t="s">
         <v>778</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="20" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="20" t="s">
         <v>742</v>
       </c>
     </row>
@@ -5079,10 +6928,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="37"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="41"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
@@ -7228,15 +9077,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="13.25" style="19"/>
+    <col min="1" max="16384" width="13.25" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.3">
@@ -7254,292 +9103,1024 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>692</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="32" t="s">
+        <v>809</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D2" s="20"/>
+      <c r="C2" s="15" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D3" s="20"/>
+      <c r="C3" s="15" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="32" t="s">
         <v>694</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>801</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D4" s="20"/>
+      <c r="C4" s="15" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="32" t="s">
         <v>695</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>802</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D5" s="20"/>
+      <c r="C5" s="15" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="32" t="s">
         <v>696</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>802</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D6" s="20"/>
+      <c r="C6" s="15" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="32" t="s">
         <v>697</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>802</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D7" s="20"/>
+      <c r="C7" s="15" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="32" t="s">
         <v>698</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>802</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D8" s="20"/>
+      <c r="C8" s="15" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="32" t="s">
         <v>699</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>802</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D9" s="20"/>
+      <c r="C9" s="15" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="32" t="s">
         <v>700</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>802</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D10" s="20"/>
+      <c r="C10" s="15" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="32" t="s">
         <v>701</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>802</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D11" s="20"/>
+      <c r="C11" s="15" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="32" t="s">
         <v>702</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>803</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D12" s="20"/>
+      <c r="C12" s="15" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:4" ht="81" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="32" t="s">
         <v>703</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>804</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D13" s="20"/>
+      <c r="C13" s="15" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:4" ht="81" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="32" t="s">
         <v>704</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>804</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D14" s="20"/>
+      <c r="C14" s="15" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="32" t="s">
         <v>705</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>802</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D15" s="20"/>
+      <c r="C15" s="15" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="32" t="s">
         <v>706</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>805</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D16" s="20"/>
+      <c r="C16" s="15" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="32" t="s">
         <v>707</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>805</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D17" s="20"/>
+      <c r="C17" s="15" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="32" t="s">
         <v>708</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>805</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D18" s="20"/>
+      <c r="C18" s="15" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="32" t="s">
         <v>709</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>805</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D19" s="20"/>
+      <c r="C19" s="15" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="32" t="s">
         <v>710</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>805</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D20" s="20"/>
+      <c r="C20" s="15" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="32" t="s">
         <v>711</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>803</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D21" s="20"/>
+      <c r="C21" s="15" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="32" t="s">
         <v>712</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>803</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D22" s="20"/>
+      <c r="C22" s="15" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="32" t="s">
         <v>713</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>806</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D23" s="20"/>
+      <c r="C23" s="15" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="32" t="s">
         <v>714</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>806</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D24" s="20"/>
+      <c r="C24" s="15" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="32" t="s">
+        <v>812</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>943</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>944</v>
-      </c>
-      <c r="D25" s="20"/>
+      <c r="C25" s="15" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
+        <v>815</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="32" t="s">
+        <v>822</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="32" t="s">
+        <v>824</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D30" s="19"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="32" t="s">
+        <v>827</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
+        <v>829</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
+        <v>833</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="32" t="s">
+        <v>836</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="32" t="s">
+        <v>838</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
+        <v>840</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
+        <v>842</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
+        <v>845</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="32" t="s">
+        <v>847</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="32" t="s">
+        <v>849</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="32" t="s">
+        <v>851</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="32" t="s">
+        <v>853</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D44" s="19"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="32" t="s">
+        <v>857</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D45" s="19"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="32" t="s">
+        <v>859</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="32" t="s">
+        <v>860</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D47" s="19"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="32" t="s">
+        <v>862</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D48" s="19"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="32" t="s">
+        <v>864</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D49" s="19"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="32" t="s">
+        <v>866</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D50" s="19"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="32" t="s">
+        <v>868</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D51" s="19"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="32" t="s">
+        <v>951</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="32" t="s">
+        <v>870</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D53" s="19"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="32" t="s">
+        <v>873</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D54" s="19"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="32" t="s">
+        <v>875</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D55" s="19"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="32" t="s">
+        <v>877</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="32" t="s">
+        <v>880</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D57" s="19"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="32" t="s">
+        <v>882</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D58" s="19"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="32" t="s">
+        <v>884</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D59" s="19"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="32" t="s">
+        <v>886</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D60" s="19"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="32" t="s">
+        <v>889</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D61" s="19"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="32" t="s">
+        <v>891</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D62" s="19"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="32" t="s">
+        <v>893</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D63" s="19"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="32" t="s">
+        <v>895</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D64" s="19"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="32" t="s">
+        <v>897</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D65" s="19"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="32" t="s">
+        <v>899</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D66" s="19"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="32" t="s">
+        <v>901</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D67" s="19"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="32" t="s">
+        <v>903</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D68" s="19"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="32" t="s">
+        <v>905</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D69" s="19"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="32" t="s">
+        <v>907</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D70" s="19"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="32" t="s">
+        <v>909</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D71" s="19"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="32" t="s">
+        <v>911</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D72" s="19"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="32" t="s">
+        <v>914</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D73" s="19"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="32" t="s">
+        <v>916</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D74" s="19"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="32" t="s">
+        <v>919</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D75" s="19"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="32" t="s">
+        <v>920</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D76" s="19"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="32" t="s">
+        <v>922</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D77" s="19"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="32" t="s">
+        <v>925</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D78" s="19"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="32" t="s">
+        <v>927</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D79" s="19"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="32" t="s">
+        <v>929</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D80" s="19"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="32" t="s">
+        <v>932</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D81" s="19"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="32" t="s">
+        <v>934</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D82" s="19"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="32" t="s">
+        <v>936</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D83" s="19"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="32" t="s">
+        <v>939</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D84" s="19"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="32" t="s">
+        <v>941</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D85" s="19"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="32" t="s">
+        <v>950</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D86" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9133,7 +11714,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B2" sqref="B2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -9964,8 +12545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -10586,11 +13167,1385 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>976</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -10604,155 +14559,1533 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="A1:D47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>1418</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10765,8 +16098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -10780,926 +16113,926 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
+        <v>944</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>945</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>946</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>947</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>809</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>715</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>716</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>693</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="24" t="s">
         <v>717</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>694</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="34" t="s">
         <v>718</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>719</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>695</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="24" t="s">
         <v>720</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>696</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="24" t="s">
         <v>721</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>697</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="24" t="s">
         <v>722</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>698</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="24" t="s">
         <v>723</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>699</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="24" t="s">
         <v>724</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>700</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="24" t="s">
         <v>725</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>701</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="24" t="s">
         <v>726</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>702</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="24" t="s">
         <v>727</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>703</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="24" t="s">
         <v>728</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>704</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="24" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="23" t="s">
         <v>729</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>705</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="24" t="s">
         <v>730</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>706</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="34" t="s">
         <v>731</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>732</v>
       </c>
-      <c r="D16" s="25"/>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>707</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="25" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="24" t="s">
         <v>731</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>708</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="24" t="s">
         <v>733</v>
       </c>
-      <c r="D18" s="25"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="24" t="s">
         <v>734</v>
       </c>
-      <c r="D19" s="25"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>710</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="24" t="s">
         <v>735</v>
       </c>
-      <c r="D20" s="25"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>711</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="34" t="s">
         <v>736</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>810</v>
       </c>
-      <c r="D21" s="25"/>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>712</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="25" t="s">
+      <c r="B22" s="34"/>
+      <c r="C22" s="24" t="s">
         <v>811</v>
       </c>
-      <c r="D22" s="25"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>713</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="34" t="s">
         <v>737</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>738</v>
       </c>
-      <c r="D23" s="25"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>714</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="24" t="s">
         <v>739</v>
       </c>
-      <c r="D24" s="25"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>812</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="35" t="s">
         <v>813</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="24" t="s">
         <v>814</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>815</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="35"/>
+      <c r="C26" s="24" t="s">
         <v>816</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="22" t="s">
         <v>817</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="35"/>
+      <c r="C27" s="24" t="s">
         <v>818</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>819</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="35" t="s">
         <v>820</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>821</v>
       </c>
-      <c r="D28" s="25"/>
+      <c r="D28" s="24"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>822</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="25" t="s">
+      <c r="B29" s="35"/>
+      <c r="C29" s="24" t="s">
         <v>823</v>
       </c>
-      <c r="D29" s="25"/>
+      <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>824</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="35" t="s">
         <v>825</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>826</v>
       </c>
-      <c r="D30" s="25"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>827</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="25" t="s">
+      <c r="B31" s="35"/>
+      <c r="C31" s="24" t="s">
         <v>828</v>
       </c>
-      <c r="D31" s="25"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>829</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="35"/>
+      <c r="C32" s="24" t="s">
         <v>830</v>
       </c>
-      <c r="D32" s="25"/>
+      <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="22" t="s">
         <v>831</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="25" t="s">
+      <c r="B33" s="35"/>
+      <c r="C33" s="24" t="s">
         <v>832</v>
       </c>
-      <c r="D33" s="25"/>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="22" t="s">
         <v>833</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="35" t="s">
         <v>834</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>835</v>
       </c>
-      <c r="D34" s="25"/>
+      <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>836</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="25" t="s">
+      <c r="B35" s="35"/>
+      <c r="C35" s="24" t="s">
         <v>837</v>
       </c>
-      <c r="D35" s="25"/>
+      <c r="D35" s="24"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="22" t="s">
         <v>838</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="25" t="s">
+      <c r="B36" s="35"/>
+      <c r="C36" s="24" t="s">
         <v>839</v>
       </c>
-      <c r="D36" s="25"/>
+      <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="22" t="s">
         <v>840</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="25" t="s">
+      <c r="B37" s="35"/>
+      <c r="C37" s="24" t="s">
         <v>841</v>
       </c>
-      <c r="D37" s="25"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="22" t="s">
         <v>842</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="35" t="s">
         <v>843</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="24" t="s">
         <v>844</v>
       </c>
-      <c r="D38" s="25"/>
+      <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="22" t="s">
         <v>845</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="35"/>
+      <c r="C39" s="24" t="s">
         <v>846</v>
       </c>
-      <c r="D39" s="25"/>
+      <c r="D39" s="24"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="22" t="s">
         <v>847</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="25" t="s">
+      <c r="B40" s="35"/>
+      <c r="C40" s="24" t="s">
         <v>848</v>
       </c>
-      <c r="D40" s="25"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="22" t="s">
         <v>849</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="25" t="s">
+      <c r="B41" s="35"/>
+      <c r="C41" s="24" t="s">
         <v>850</v>
       </c>
-      <c r="D41" s="25"/>
+      <c r="D41" s="24"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="22" t="s">
         <v>851</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="35"/>
+      <c r="C42" s="24" t="s">
         <v>852</v>
       </c>
-      <c r="D42" s="25"/>
+      <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="22" t="s">
         <v>853</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="25" t="s">
+      <c r="B43" s="35"/>
+      <c r="C43" s="24" t="s">
         <v>854</v>
       </c>
-      <c r="D43" s="25"/>
+      <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="22" t="s">
         <v>855</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="25" t="s">
+      <c r="B44" s="35"/>
+      <c r="C44" s="24" t="s">
         <v>856</v>
       </c>
-      <c r="D44" s="25"/>
+      <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="22" t="s">
         <v>857</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="25" t="s">
+      <c r="B45" s="35"/>
+      <c r="C45" s="24" t="s">
         <v>858</v>
       </c>
-      <c r="D45" s="25"/>
+      <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="22" t="s">
         <v>859</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="25" t="s">
+      <c r="B46" s="35"/>
+      <c r="C46" s="24" t="s">
+        <v>947</v>
+      </c>
+      <c r="D46" s="24"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="B47" s="35"/>
+      <c r="C47" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="D47" s="24"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="22" t="s">
+        <v>862</v>
+      </c>
+      <c r="B48" s="35"/>
+      <c r="C48" s="24" t="s">
+        <v>863</v>
+      </c>
+      <c r="D48" s="24"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="22" t="s">
+        <v>864</v>
+      </c>
+      <c r="B49" s="35"/>
+      <c r="C49" s="24" t="s">
+        <v>865</v>
+      </c>
+      <c r="D49" s="24"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="22" t="s">
+        <v>866</v>
+      </c>
+      <c r="B50" s="35"/>
+      <c r="C50" s="24" t="s">
+        <v>867</v>
+      </c>
+      <c r="D50" s="24"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="26" t="s">
+        <v>868</v>
+      </c>
+      <c r="B51" s="35"/>
+      <c r="C51" s="24" t="s">
+        <v>869</v>
+      </c>
+      <c r="D51" s="24"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="22" t="s">
+        <v>951</v>
+      </c>
+      <c r="B52" s="35"/>
+      <c r="C52" s="29" t="s">
+        <v>952</v>
+      </c>
+      <c r="D52" s="24"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="22" t="s">
+        <v>870</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>871</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>872</v>
+      </c>
+      <c r="D53" s="24"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="22" t="s">
+        <v>873</v>
+      </c>
+      <c r="B54" s="35"/>
+      <c r="C54" s="24" t="s">
+        <v>874</v>
+      </c>
+      <c r="D54" s="24"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="B55" s="35"/>
+      <c r="C55" s="24" t="s">
+        <v>876</v>
+      </c>
+      <c r="D55" s="24"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="22" t="s">
+        <v>877</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>878</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="D56" s="24"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="22" t="s">
+        <v>880</v>
+      </c>
+      <c r="B57" s="35"/>
+      <c r="C57" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="D57" s="24"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="22" t="s">
+        <v>882</v>
+      </c>
+      <c r="B58" s="35"/>
+      <c r="C58" s="24" t="s">
+        <v>883</v>
+      </c>
+      <c r="D58" s="24"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="B59" s="35"/>
+      <c r="C59" s="24" t="s">
+        <v>885</v>
+      </c>
+      <c r="D59" s="24"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="22" t="s">
+        <v>886</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>887</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>888</v>
+      </c>
+      <c r="D60" s="24"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="22" t="s">
+        <v>889</v>
+      </c>
+      <c r="B61" s="35"/>
+      <c r="C61" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="D61" s="24"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="B62" s="35"/>
+      <c r="C62" s="24" t="s">
+        <v>892</v>
+      </c>
+      <c r="D62" s="24"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="22" t="s">
+        <v>893</v>
+      </c>
+      <c r="B63" s="35"/>
+      <c r="C63" s="24" t="s">
+        <v>894</v>
+      </c>
+      <c r="D63" s="24"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="22" t="s">
+        <v>895</v>
+      </c>
+      <c r="B64" s="35"/>
+      <c r="C64" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="D64" s="24"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="22" t="s">
+        <v>897</v>
+      </c>
+      <c r="B65" s="35"/>
+      <c r="C65" s="24" t="s">
+        <v>898</v>
+      </c>
+      <c r="D65" s="24"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="22" t="s">
+        <v>899</v>
+      </c>
+      <c r="B66" s="35"/>
+      <c r="C66" s="24" t="s">
+        <v>900</v>
+      </c>
+      <c r="D66" s="24"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="22" t="s">
+        <v>901</v>
+      </c>
+      <c r="B67" s="35"/>
+      <c r="C67" s="24" t="s">
+        <v>902</v>
+      </c>
+      <c r="D67" s="24"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="22" t="s">
+        <v>903</v>
+      </c>
+      <c r="B68" s="35"/>
+      <c r="C68" s="24" t="s">
+        <v>904</v>
+      </c>
+      <c r="D68" s="24"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="22" t="s">
+        <v>905</v>
+      </c>
+      <c r="B69" s="35"/>
+      <c r="C69" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="D69" s="24"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="22" t="s">
+        <v>907</v>
+      </c>
+      <c r="B70" s="35"/>
+      <c r="C70" s="24" t="s">
+        <v>908</v>
+      </c>
+      <c r="D70" s="24"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="22" t="s">
+        <v>909</v>
+      </c>
+      <c r="B71" s="35"/>
+      <c r="C71" s="24" t="s">
+        <v>910</v>
+      </c>
+      <c r="D71" s="24"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="22" t="s">
+        <v>911</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>912</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="D72" s="24"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="22" t="s">
+        <v>914</v>
+      </c>
+      <c r="B73" s="35"/>
+      <c r="C73" s="24" t="s">
+        <v>915</v>
+      </c>
+      <c r="D73" s="24"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="22" t="s">
+        <v>916</v>
+      </c>
+      <c r="B74" s="35" t="s">
+        <v>917</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>918</v>
+      </c>
+      <c r="D74" s="24"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="22" t="s">
+        <v>919</v>
+      </c>
+      <c r="B75" s="35"/>
+      <c r="C75" s="24" t="s">
         <v>948</v>
       </c>
-      <c r="D46" s="25"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
-        <v>860</v>
-      </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="25" t="s">
-        <v>861</v>
-      </c>
-      <c r="D47" s="25"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="23" t="s">
-        <v>862</v>
-      </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="25" t="s">
-        <v>863</v>
-      </c>
-      <c r="D48" s="25"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
-        <v>864</v>
-      </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="25" t="s">
-        <v>865</v>
-      </c>
-      <c r="D49" s="25"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="23" t="s">
-        <v>866</v>
-      </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="25" t="s">
-        <v>867</v>
-      </c>
-      <c r="D50" s="25"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="27" t="s">
-        <v>868</v>
-      </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="25" t="s">
-        <v>869</v>
-      </c>
-      <c r="D51" s="25"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="23" t="s">
-        <v>952</v>
-      </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="38" t="s">
+      <c r="D75" s="24"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="22" t="s">
+        <v>920</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>921</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>949</v>
+      </c>
+      <c r="D76" s="24"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="22" t="s">
+        <v>922</v>
+      </c>
+      <c r="B77" s="35" t="s">
+        <v>923</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>924</v>
+      </c>
+      <c r="D77" s="24"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="22" t="s">
+        <v>925</v>
+      </c>
+      <c r="B78" s="35"/>
+      <c r="C78" s="24" t="s">
+        <v>926</v>
+      </c>
+      <c r="D78" s="24"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="22" t="s">
+        <v>927</v>
+      </c>
+      <c r="B79" s="35"/>
+      <c r="C79" s="24" t="s">
+        <v>928</v>
+      </c>
+      <c r="D79" s="24"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>930</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>931</v>
+      </c>
+      <c r="D80" s="24"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="22" t="s">
+        <v>932</v>
+      </c>
+      <c r="B81" s="35"/>
+      <c r="C81" s="24" t="s">
+        <v>933</v>
+      </c>
+      <c r="D81" s="24"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="22" t="s">
+        <v>934</v>
+      </c>
+      <c r="B82" s="35"/>
+      <c r="C82" s="24" t="s">
+        <v>935</v>
+      </c>
+      <c r="D82" s="24"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="B83" s="35" t="s">
+        <v>937</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>938</v>
+      </c>
+      <c r="D83" s="24"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="B84" s="35"/>
+      <c r="C84" s="24" t="s">
+        <v>940</v>
+      </c>
+      <c r="D84" s="24"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="22" t="s">
+        <v>941</v>
+      </c>
+      <c r="B85" s="35"/>
+      <c r="C85" s="24" t="s">
+        <v>942</v>
+      </c>
+      <c r="D85" s="24"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="22" t="s">
+        <v>950</v>
+      </c>
+      <c r="B86" s="35"/>
+      <c r="C86" s="27" t="s">
         <v>953</v>
       </c>
-      <c r="D52" s="25"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
-        <v>870</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>871</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>872</v>
-      </c>
-      <c r="D53" s="25"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
-        <v>873</v>
-      </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="25" t="s">
-        <v>874</v>
-      </c>
-      <c r="D54" s="25"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="23" t="s">
-        <v>875</v>
-      </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="25" t="s">
-        <v>876</v>
-      </c>
-      <c r="D55" s="25"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="23" t="s">
-        <v>877</v>
-      </c>
-      <c r="B56" s="30" t="s">
-        <v>878</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>879</v>
-      </c>
-      <c r="D56" s="25"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
-        <v>880</v>
-      </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="25" t="s">
-        <v>881</v>
-      </c>
-      <c r="D57" s="25"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="23" t="s">
-        <v>882</v>
-      </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="25" t="s">
-        <v>883</v>
-      </c>
-      <c r="D58" s="25"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="23" t="s">
-        <v>884</v>
-      </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="25" t="s">
-        <v>885</v>
-      </c>
-      <c r="D59" s="25"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="23" t="s">
-        <v>886</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>887</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>888</v>
-      </c>
-      <c r="D60" s="25"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="23" t="s">
-        <v>889</v>
-      </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="25" t="s">
-        <v>890</v>
-      </c>
-      <c r="D61" s="25"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="23" t="s">
-        <v>891</v>
-      </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="25" t="s">
-        <v>892</v>
-      </c>
-      <c r="D62" s="25"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="23" t="s">
-        <v>893</v>
-      </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="25" t="s">
-        <v>894</v>
-      </c>
-      <c r="D63" s="25"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="23" t="s">
-        <v>895</v>
-      </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="25" t="s">
-        <v>896</v>
-      </c>
-      <c r="D64" s="25"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="23" t="s">
-        <v>897</v>
-      </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="25" t="s">
-        <v>898</v>
-      </c>
-      <c r="D65" s="25"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="23" t="s">
-        <v>899</v>
-      </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="25" t="s">
-        <v>900</v>
-      </c>
-      <c r="D66" s="25"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="23" t="s">
-        <v>901</v>
-      </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="25" t="s">
-        <v>902</v>
-      </c>
-      <c r="D67" s="25"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="23" t="s">
-        <v>903</v>
-      </c>
-      <c r="B68" s="30"/>
-      <c r="C68" s="25" t="s">
-        <v>904</v>
-      </c>
-      <c r="D68" s="25"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="23" t="s">
-        <v>905</v>
-      </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="25" t="s">
-        <v>906</v>
-      </c>
-      <c r="D69" s="25"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="23" t="s">
-        <v>907</v>
-      </c>
-      <c r="B70" s="30"/>
-      <c r="C70" s="25" t="s">
-        <v>908</v>
-      </c>
-      <c r="D70" s="25"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="23" t="s">
-        <v>909</v>
-      </c>
-      <c r="B71" s="30"/>
-      <c r="C71" s="25" t="s">
-        <v>910</v>
-      </c>
-      <c r="D71" s="25"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="23" t="s">
-        <v>911</v>
-      </c>
-      <c r="B72" s="30" t="s">
-        <v>912</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>913</v>
-      </c>
-      <c r="D72" s="25"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="23" t="s">
-        <v>914</v>
-      </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="25" t="s">
-        <v>915</v>
-      </c>
-      <c r="D73" s="25"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="23" t="s">
-        <v>916</v>
-      </c>
-      <c r="B74" s="30" t="s">
-        <v>917</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>918</v>
-      </c>
-      <c r="D74" s="25"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="23" t="s">
-        <v>919</v>
-      </c>
-      <c r="B75" s="30"/>
-      <c r="C75" s="25" t="s">
-        <v>949</v>
-      </c>
-      <c r="D75" s="25"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="23" t="s">
-        <v>920</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>921</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>950</v>
-      </c>
-      <c r="D76" s="25"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="23" t="s">
-        <v>922</v>
-      </c>
-      <c r="B77" s="30" t="s">
-        <v>923</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>924</v>
-      </c>
-      <c r="D77" s="25"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="23" t="s">
-        <v>925</v>
-      </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="25" t="s">
-        <v>926</v>
-      </c>
-      <c r="D78" s="25"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="23" t="s">
-        <v>927</v>
-      </c>
-      <c r="B79" s="30"/>
-      <c r="C79" s="25" t="s">
-        <v>928</v>
-      </c>
-      <c r="D79" s="25"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="23" t="s">
-        <v>929</v>
-      </c>
-      <c r="B80" s="30" t="s">
-        <v>930</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>931</v>
-      </c>
-      <c r="D80" s="25"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="23" t="s">
-        <v>932</v>
-      </c>
-      <c r="B81" s="30"/>
-      <c r="C81" s="25" t="s">
-        <v>933</v>
-      </c>
-      <c r="D81" s="25"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="23" t="s">
-        <v>934</v>
-      </c>
-      <c r="B82" s="30"/>
-      <c r="C82" s="25" t="s">
-        <v>935</v>
-      </c>
-      <c r="D82" s="25"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="23" t="s">
-        <v>936</v>
-      </c>
-      <c r="B83" s="30" t="s">
-        <v>937</v>
-      </c>
-      <c r="C83" s="25" t="s">
-        <v>938</v>
-      </c>
-      <c r="D83" s="25"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="23" t="s">
-        <v>939</v>
-      </c>
-      <c r="B84" s="30"/>
-      <c r="C84" s="25" t="s">
-        <v>940</v>
-      </c>
-      <c r="D84" s="25"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="23" t="s">
-        <v>941</v>
-      </c>
-      <c r="B85" s="30"/>
-      <c r="C85" s="25" t="s">
-        <v>942</v>
-      </c>
-      <c r="D85" s="25"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="23" t="s">
-        <v>951</v>
-      </c>
-      <c r="B86" s="30"/>
-      <c r="C86" s="28" t="s">
-        <v>954</v>
-      </c>
-      <c r="D86" s="25"/>
+      <c r="D86" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B60:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B52"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B15"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B60:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B86"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11709,10 +17042,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -11815,6 +17148,15 @@
       </c>
       <c r="C10" s="3"/>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11824,10 +17166,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -11984,6 +17326,15 @@
       </c>
       <c r="C16" s="3"/>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11993,10 +17344,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -12009,31 +17360,31 @@
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -12050,28 +17401,93 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+    </row>
+    <row r="13" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="38" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12346,7 +17762,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/Diagram/001_Document/Interface_Define_TC_Creator.xlsx
+++ b/Diagram/001_Document/Interface_Define_TC_Creator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22905" windowHeight="14670" tabRatio="881" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22905" windowHeight="14670" tabRatio="881" firstSheet="20" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="27" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="1515">
   <si>
     <t>Description</t>
   </si>
@@ -3388,10 +3388,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CLI 동작 기능 검토 (TBD)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3894,9 +3890,6 @@
     <t>isTestCaseInputSignalDataInfo</t>
   </si>
   <si>
-    <t>const int&amp; sheetIndex, ..., QMap&lt;QString, SignalData&gt;&amp; newSignalDataInfo;</t>
-  </si>
-  <si>
     <t>isOtherInputSignalDataInfo</t>
   </si>
   <si>
@@ -4062,12 +4055,6 @@
     <t>const int&amp; sheetIndex, const QString&amp; tcName, const QString&amp; resultName</t>
   </si>
   <si>
-    <t>const int&amp; sheetIndex, const QString&amp; tcName, ..., const bool&amp; checkOthers</t>
-  </si>
-  <si>
-    <t>const int&amp; sheetIndex, const QString&amp; tcName, ..., const QString&amp; caseName</t>
-  </si>
-  <si>
     <t xml:space="preserve">const QString&amp; configName, const bool&amp; allData, const bool&amp; removeMerge </t>
   </si>
   <si>
@@ -4077,12 +4064,6 @@
     <t>QList&lt;ManualData&gt;</t>
   </si>
   <si>
-    <t>const int&amp; sheetIndex, const QString&amp; tcName, ..., const bool&amp; insertBefore</t>
-  </si>
-  <si>
-    <t>const int&amp; sheetIndex, const QString&amp; tcName, ..., const QList&lt;QStringList&gt;&amp; outputList</t>
-  </si>
-  <si>
     <t>const QString&amp; configName, const QMap&lt;QString, QString&gt;&amp; inputList</t>
   </si>
   <si>
@@ -4248,12 +4229,6 @@
     <t>reconstructInputData</t>
   </si>
   <si>
-    <t>QStringList arguments</t>
-  </si>
-  <si>
-    <t>bool appExit</t>
-  </si>
-  <si>
     <t>QMap&lt;QString, QString&gt;</t>
   </si>
   <si>
@@ -4305,27 +4280,6 @@
     <t>const QMap&lt;int, QPairString&gt;&amp; value</t>
   </si>
   <si>
-    <t>int excuteType</t>
-  </si>
-  <si>
-    <t>int excuteType, QString text</t>
-  </si>
-  <si>
-    <t>int excuteType, QStringList itemList</t>
-  </si>
-  <si>
-    <t>int excuteType, QStringList options</t>
-  </si>
-  <si>
-    <t>bool editingModule</t>
-  </si>
-  <si>
-    <t>QList&lt;QVariantList&gt; sheetDataList</t>
-  </si>
-  <si>
-    <t>QThread* thread, QWaitCondition&amp; waitCondition, QMutex&amp; mutex, int type</t>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4462,14 +4416,6 @@
     <t>signalGenTCInfo</t>
   </si>
   <si>
-    <t>int type, bool sheetReload</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int resultType, int current, int total, QStringList info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>N/A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4891,10 +4837,6 @@
   </si>
   <si>
     <t>TC Gen 실행시 입력된 옵션 파싱하는 함수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC Gen 실행시 입력된 AppMode(CV, PV) 파싱하는 함수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5240,6 +5182,82 @@
   </si>
   <si>
     <t>LLD-DET-0108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const QPair&lt;QStringList, QStringList&gt;&amp; allList, const QPair&lt;QStringList, QStringList&gt;&amp; list, QMap&lt;QString, SignalData&gt;&amp; newSignalDataInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const QPair&lt;QStringList, QStringList&gt;&amp; allList, QMap&lt;QString, SignalData&gt;&amp; newSignalDataInfo</t>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const QString&amp; tcName, const QString&amp; resultName, const QString&amp; caseName, const QPair&lt;QStringList, QStringList&gt;&amp; inputList, const QString&amp; baseCaseName, const bool&amp; insertBefore</t>
+  </si>
+  <si>
+    <t>const int&amp; sheetIndex, const QString&amp; tcName, const QString&amp; resultName, const QList&lt;QStringList&gt;&amp; outputList</t>
+  </si>
+  <si>
+    <t>Qlist&lt;QPair&lt;int, int&gt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>const QStringList&amp; arguments</t>
+  </si>
+  <si>
+    <t>const bool&amp; appExit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>const QStringList&amp; arguments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>const int&amp; excuteType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>const int&amp; excuteType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>const int&amp; excuteType, const QStringList&amp; itemList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>const int&amp; excuteType, const QStringList&amp; options</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>const bool&amp; editingModule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>const QList&lt;QVariantList&gt;&amp; sheetDataList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>const int&amp; type, const bool&amp; sheetReload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>const int&amp; resultType, const int&amp; current, const int&amp; total, const QStringList&amp; info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>const int&amp; excuteType, const Qstring&amp; text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC Gen 실행시 입력된 argument 파싱하는 함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QThread* thread, QWaitCondition&amp; waitCondition, QMutex&amp; mutex, const int&amp; type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLI 동작 기능 제공</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5502,10 +5520,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9079,7 +9097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D86"/>
     </sheetView>
   </sheetViews>
@@ -9110,7 +9128,7 @@
         <v>800</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1509</v>
+        <v>1491</v>
       </c>
       <c r="D2" s="19"/>
     </row>
@@ -9122,7 +9140,7 @@
         <v>800</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>1510</v>
+        <v>1492</v>
       </c>
       <c r="D3" s="19"/>
     </row>
@@ -9134,7 +9152,7 @@
         <v>801</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>1428</v>
+        <v>1410</v>
       </c>
       <c r="D4" s="19"/>
     </row>
@@ -9146,7 +9164,7 @@
         <v>802</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>1429</v>
+        <v>1411</v>
       </c>
       <c r="D5" s="19"/>
     </row>
@@ -9158,7 +9176,7 @@
         <v>802</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>1430</v>
+        <v>1412</v>
       </c>
       <c r="D6" s="19"/>
     </row>
@@ -9170,7 +9188,7 @@
         <v>802</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>1431</v>
+        <v>1413</v>
       </c>
       <c r="D7" s="19"/>
     </row>
@@ -9182,7 +9200,7 @@
         <v>802</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>1432</v>
+        <v>1414</v>
       </c>
       <c r="D8" s="19"/>
     </row>
@@ -9194,7 +9212,7 @@
         <v>802</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>1433</v>
+        <v>1415</v>
       </c>
       <c r="D9" s="19"/>
     </row>
@@ -9206,7 +9224,7 @@
         <v>802</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>1512</v>
+        <v>1494</v>
       </c>
       <c r="D10" s="19"/>
     </row>
@@ -9218,7 +9236,7 @@
         <v>802</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>1511</v>
+        <v>1493</v>
       </c>
       <c r="D11" s="19"/>
     </row>
@@ -9230,7 +9248,7 @@
         <v>803</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="D12" s="19"/>
     </row>
@@ -9242,7 +9260,7 @@
         <v>804</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>1435</v>
+        <v>1417</v>
       </c>
       <c r="D13" s="19"/>
     </row>
@@ -9254,7 +9272,7 @@
         <v>804</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
       <c r="D14" s="19"/>
     </row>
@@ -9266,7 +9284,7 @@
         <v>802</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>1437</v>
+        <v>1419</v>
       </c>
       <c r="D15" s="19"/>
     </row>
@@ -9278,7 +9296,7 @@
         <v>805</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>1438</v>
+        <v>1420</v>
       </c>
       <c r="D16" s="19"/>
     </row>
@@ -9290,7 +9308,7 @@
         <v>805</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>1439</v>
+        <v>1421</v>
       </c>
       <c r="D17" s="19"/>
     </row>
@@ -9302,7 +9320,7 @@
         <v>805</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>1440</v>
+        <v>1422</v>
       </c>
       <c r="D18" s="19"/>
     </row>
@@ -9314,7 +9332,7 @@
         <v>805</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>1441</v>
+        <v>1423</v>
       </c>
       <c r="D19" s="19"/>
     </row>
@@ -9326,7 +9344,7 @@
         <v>805</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>1442</v>
+        <v>1424</v>
       </c>
       <c r="D20" s="19"/>
     </row>
@@ -9338,7 +9356,7 @@
         <v>803</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>1443</v>
+        <v>1425</v>
       </c>
       <c r="D21" s="19"/>
     </row>
@@ -9350,7 +9368,7 @@
         <v>803</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>1444</v>
+        <v>1426</v>
       </c>
       <c r="D22" s="19"/>
     </row>
@@ -9362,7 +9380,7 @@
         <v>806</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>1445</v>
+        <v>1427</v>
       </c>
       <c r="D23" s="19"/>
     </row>
@@ -9374,7 +9392,7 @@
         <v>806</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>1446</v>
+        <v>1428</v>
       </c>
       <c r="D24" s="19"/>
     </row>
@@ -9386,7 +9404,7 @@
         <v>943</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>1447</v>
+        <v>1429</v>
       </c>
       <c r="D25" s="19"/>
     </row>
@@ -9398,7 +9416,7 @@
         <v>943</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>1448</v>
+        <v>1430</v>
       </c>
       <c r="D26" s="19"/>
     </row>
@@ -9410,7 +9428,7 @@
         <v>943</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>1449</v>
+        <v>1431</v>
       </c>
       <c r="D27" s="19"/>
     </row>
@@ -9422,7 +9440,7 @@
         <v>943</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>1450</v>
+        <v>1432</v>
       </c>
       <c r="D28" s="19"/>
     </row>
@@ -9434,7 +9452,7 @@
         <v>943</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>1451</v>
+        <v>1433</v>
       </c>
       <c r="D29" s="19"/>
     </row>
@@ -9446,7 +9464,7 @@
         <v>943</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>1452</v>
+        <v>1434</v>
       </c>
       <c r="D30" s="19"/>
     </row>
@@ -9458,7 +9476,7 @@
         <v>943</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>1453</v>
+        <v>1435</v>
       </c>
       <c r="D31" s="19"/>
     </row>
@@ -9470,7 +9488,7 @@
         <v>943</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>1454</v>
+        <v>1436</v>
       </c>
       <c r="D32" s="19"/>
     </row>
@@ -9482,7 +9500,7 @@
         <v>943</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>1455</v>
+        <v>1437</v>
       </c>
       <c r="D33" s="19"/>
     </row>
@@ -9494,7 +9512,7 @@
         <v>943</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>1456</v>
+        <v>1438</v>
       </c>
       <c r="D34" s="19"/>
     </row>
@@ -9506,7 +9524,7 @@
         <v>943</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>1457</v>
+        <v>1439</v>
       </c>
       <c r="D35" s="19"/>
     </row>
@@ -9518,7 +9536,7 @@
         <v>943</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>1458</v>
+        <v>1440</v>
       </c>
       <c r="D36" s="19"/>
     </row>
@@ -9530,7 +9548,7 @@
         <v>943</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>1459</v>
+        <v>1441</v>
       </c>
       <c r="D37" s="19"/>
     </row>
@@ -9542,7 +9560,7 @@
         <v>943</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>1460</v>
+        <v>1442</v>
       </c>
       <c r="D38" s="19"/>
     </row>
@@ -9554,7 +9572,7 @@
         <v>943</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>1461</v>
+        <v>1443</v>
       </c>
       <c r="D39" s="19"/>
     </row>
@@ -9566,7 +9584,7 @@
         <v>943</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>1462</v>
+        <v>1444</v>
       </c>
       <c r="D40" s="19"/>
     </row>
@@ -9578,7 +9596,7 @@
         <v>943</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>1463</v>
+        <v>1445</v>
       </c>
       <c r="D41" s="19"/>
     </row>
@@ -9590,7 +9608,7 @@
         <v>943</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>1464</v>
+        <v>1446</v>
       </c>
       <c r="D42" s="19"/>
     </row>
@@ -9602,7 +9620,7 @@
         <v>943</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>1465</v>
+        <v>1447</v>
       </c>
       <c r="D43" s="19"/>
     </row>
@@ -9614,7 +9632,7 @@
         <v>943</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>1466</v>
+        <v>1448</v>
       </c>
       <c r="D44" s="19"/>
     </row>
@@ -9626,7 +9644,7 @@
         <v>943</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>1467</v>
+        <v>1449</v>
       </c>
       <c r="D45" s="19"/>
     </row>
@@ -9638,7 +9656,7 @@
         <v>943</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>1468</v>
+        <v>1450</v>
       </c>
       <c r="D46" s="19"/>
     </row>
@@ -9650,7 +9668,7 @@
         <v>943</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>1469</v>
+        <v>1451</v>
       </c>
       <c r="D47" s="19"/>
     </row>
@@ -9662,7 +9680,7 @@
         <v>943</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>1470</v>
+        <v>1452</v>
       </c>
       <c r="D48" s="19"/>
     </row>
@@ -9674,7 +9692,7 @@
         <v>943</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>1471</v>
+        <v>1453</v>
       </c>
       <c r="D49" s="19"/>
     </row>
@@ -9686,7 +9704,7 @@
         <v>943</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>1472</v>
+        <v>1454</v>
       </c>
       <c r="D50" s="19"/>
     </row>
@@ -9698,7 +9716,7 @@
         <v>943</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>1473</v>
+        <v>1455</v>
       </c>
       <c r="D51" s="19"/>
     </row>
@@ -9710,7 +9728,7 @@
         <v>943</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>1474</v>
+        <v>1456</v>
       </c>
       <c r="D52" s="19"/>
     </row>
@@ -9722,7 +9740,7 @@
         <v>943</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>1475</v>
+        <v>1457</v>
       </c>
       <c r="D53" s="19"/>
     </row>
@@ -9734,7 +9752,7 @@
         <v>943</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>1476</v>
+        <v>1458</v>
       </c>
       <c r="D54" s="19"/>
     </row>
@@ -9746,7 +9764,7 @@
         <v>943</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>1477</v>
+        <v>1459</v>
       </c>
       <c r="D55" s="19"/>
     </row>
@@ -9758,7 +9776,7 @@
         <v>943</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>1478</v>
+        <v>1460</v>
       </c>
       <c r="D56" s="19"/>
     </row>
@@ -9770,7 +9788,7 @@
         <v>943</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>1479</v>
+        <v>1461</v>
       </c>
       <c r="D57" s="19"/>
     </row>
@@ -9782,7 +9800,7 @@
         <v>943</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>1480</v>
+        <v>1462</v>
       </c>
       <c r="D58" s="19"/>
     </row>
@@ -9794,7 +9812,7 @@
         <v>943</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>1481</v>
+        <v>1463</v>
       </c>
       <c r="D59" s="19"/>
     </row>
@@ -9806,7 +9824,7 @@
         <v>943</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>1482</v>
+        <v>1464</v>
       </c>
       <c r="D60" s="19"/>
     </row>
@@ -9818,7 +9836,7 @@
         <v>943</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>1483</v>
+        <v>1465</v>
       </c>
       <c r="D61" s="19"/>
     </row>
@@ -9830,7 +9848,7 @@
         <v>943</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>1484</v>
+        <v>1466</v>
       </c>
       <c r="D62" s="19"/>
     </row>
@@ -9842,7 +9860,7 @@
         <v>943</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>1485</v>
+        <v>1467</v>
       </c>
       <c r="D63" s="19"/>
     </row>
@@ -9854,7 +9872,7 @@
         <v>943</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>1486</v>
+        <v>1468</v>
       </c>
       <c r="D64" s="19"/>
     </row>
@@ -9866,7 +9884,7 @@
         <v>943</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>1487</v>
+        <v>1469</v>
       </c>
       <c r="D65" s="19"/>
     </row>
@@ -9878,7 +9896,7 @@
         <v>943</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>1488</v>
+        <v>1470</v>
       </c>
       <c r="D66" s="19"/>
     </row>
@@ -9890,7 +9908,7 @@
         <v>943</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>1489</v>
+        <v>1471</v>
       </c>
       <c r="D67" s="19"/>
     </row>
@@ -9902,7 +9920,7 @@
         <v>943</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>1490</v>
+        <v>1472</v>
       </c>
       <c r="D68" s="19"/>
     </row>
@@ -9914,7 +9932,7 @@
         <v>943</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>1491</v>
+        <v>1473</v>
       </c>
       <c r="D69" s="19"/>
     </row>
@@ -9926,7 +9944,7 @@
         <v>943</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>1492</v>
+        <v>1474</v>
       </c>
       <c r="D70" s="19"/>
     </row>
@@ -9938,7 +9956,7 @@
         <v>943</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>1493</v>
+        <v>1475</v>
       </c>
       <c r="D71" s="19"/>
     </row>
@@ -9950,7 +9968,7 @@
         <v>943</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>1494</v>
+        <v>1476</v>
       </c>
       <c r="D72" s="19"/>
     </row>
@@ -9962,7 +9980,7 @@
         <v>943</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>1495</v>
+        <v>1477</v>
       </c>
       <c r="D73" s="19"/>
     </row>
@@ -9974,7 +9992,7 @@
         <v>943</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>1496</v>
+        <v>1478</v>
       </c>
       <c r="D74" s="19"/>
     </row>
@@ -9986,7 +10004,7 @@
         <v>943</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>1497</v>
+        <v>1479</v>
       </c>
       <c r="D75" s="19"/>
     </row>
@@ -9998,7 +10016,7 @@
         <v>943</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>1498</v>
+        <v>1480</v>
       </c>
       <c r="D76" s="19"/>
     </row>
@@ -10010,7 +10028,7 @@
         <v>943</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>1499</v>
+        <v>1481</v>
       </c>
       <c r="D77" s="19"/>
     </row>
@@ -10022,7 +10040,7 @@
         <v>943</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>1500</v>
+        <v>1482</v>
       </c>
       <c r="D78" s="19"/>
     </row>
@@ -10034,7 +10052,7 @@
         <v>943</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>1501</v>
+        <v>1483</v>
       </c>
       <c r="D79" s="19"/>
     </row>
@@ -10046,7 +10064,7 @@
         <v>943</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>1502</v>
+        <v>1484</v>
       </c>
       <c r="D80" s="19"/>
     </row>
@@ -10058,7 +10076,7 @@
         <v>943</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>1503</v>
+        <v>1485</v>
       </c>
       <c r="D81" s="19"/>
     </row>
@@ -10070,7 +10088,7 @@
         <v>943</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>1504</v>
+        <v>1486</v>
       </c>
       <c r="D82" s="19"/>
     </row>
@@ -10082,7 +10100,7 @@
         <v>943</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>1505</v>
+        <v>1487</v>
       </c>
       <c r="D83" s="19"/>
     </row>
@@ -10094,7 +10112,7 @@
         <v>943</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>1506</v>
+        <v>1488</v>
       </c>
       <c r="D84" s="19"/>
     </row>
@@ -10106,7 +10124,7 @@
         <v>943</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>1507</v>
+        <v>1489</v>
       </c>
       <c r="D85" s="19"/>
     </row>
@@ -10118,7 +10136,7 @@
         <v>943</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>1508</v>
+        <v>1490</v>
       </c>
       <c r="D86" s="19"/>
     </row>
@@ -13203,27 +13221,27 @@
         <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>958</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>959</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>960</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -13231,27 +13249,27 @@
         <v>67</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -13259,13 +13277,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>964</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -13273,13 +13291,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>966</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -13287,13 +13305,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -13301,13 +13319,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>
@@ -13353,27 +13371,27 @@
         <v>464</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1045</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1047</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -13381,13 +13399,13 @@
         <v>326</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>1053</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -13395,13 +13413,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -13409,13 +13427,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -13423,27 +13441,27 @@
         <v>464</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>1049</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>983</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -13451,13 +13469,13 @@
         <v>464</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -13465,13 +13483,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -13479,27 +13497,27 @@
         <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>989</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -13507,27 +13525,27 @@
         <v>464</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>992</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -13535,13 +13553,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -13549,13 +13567,13 @@
         <v>464</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
@@ -13563,13 +13581,13 @@
         <v>464</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -13577,13 +13595,13 @@
         <v>464</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -13591,27 +13609,27 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>467</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -13619,13 +13637,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -13633,13 +13651,13 @@
         <v>464</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -13647,13 +13665,13 @@
         <v>464</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -13661,13 +13679,13 @@
         <v>464</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -13675,13 +13693,13 @@
         <v>464</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -13689,13 +13707,13 @@
         <v>326</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -13703,27 +13721,27 @@
         <v>50</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>1006</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -13731,41 +13749,41 @@
         <v>326</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>1009</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>1011</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -13773,13 +13791,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -13787,13 +13805,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -13801,13 +13819,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -13815,13 +13833,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -13829,13 +13847,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -13843,13 +13861,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -13857,13 +13875,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -13871,13 +13889,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -13885,13 +13903,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
   </sheetData>
@@ -13905,8 +13923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="A1:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -13937,13 +13955,13 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1296</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -13951,13 +13969,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>474</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1295</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -13965,13 +13983,13 @@
         <v>476</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1093</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>1297</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -13979,13 +13997,13 @@
         <v>464</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>1095</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>1298</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -13993,13 +14011,13 @@
         <v>326</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1299</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -14007,69 +14025,69 @@
         <v>326</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>1098</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>1300</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>1101</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>1302</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1103</v>
+        <v>1495</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1496</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -14077,13 +14095,13 @@
         <v>50</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1304</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -14091,13 +14109,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1305</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -14105,13 +14123,13 @@
         <v>464</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -14119,13 +14137,13 @@
         <v>464</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -14133,13 +14151,13 @@
         <v>464</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -14147,13 +14165,13 @@
         <v>326</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -14161,13 +14179,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -14175,13 +14193,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -14189,13 +14207,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -14203,13 +14221,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -14223,7 +14241,7 @@
         <v>474</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1306</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -14234,10 +14252,10 @@
         <v>475</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1307</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -14245,13 +14263,13 @@
         <v>476</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1308</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -14259,13 +14277,13 @@
         <v>464</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1309</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -14273,13 +14291,13 @@
         <v>476</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1310</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -14287,13 +14305,13 @@
         <v>326</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1311</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -14301,27 +14319,27 @@
         <v>326</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1313</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>1123</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>1312</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -14329,13 +14347,13 @@
         <v>476</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>1314</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -14343,55 +14361,55 @@
         <v>476</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1315</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>1129</v>
-      </c>
       <c r="D32" s="3" t="s">
-        <v>1316</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>1132</v>
-      </c>
       <c r="D33" s="3" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -14399,13 +14417,13 @@
         <v>326</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -14413,13 +14431,13 @@
         <v>326</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -14427,13 +14445,13 @@
         <v>50</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>474</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1321</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -14441,13 +14459,13 @@
         <v>15</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1322</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -14455,55 +14473,55 @@
         <v>15</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>1323</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>1145</v>
-      </c>
       <c r="D40" s="3" t="s">
-        <v>1324</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>1326</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>1150</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>1325</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -14511,27 +14529,27 @@
         <v>326</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>1328</v>
+        <v>1311</v>
       </c>
     </row>
   </sheetData>
@@ -14559,10 +14577,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>781</v>
@@ -14635,10 +14653,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>781</v>
@@ -14720,8 +14738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="A1:D47"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -14752,13 +14770,13 @@
         <v>326</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1331</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -14766,13 +14784,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1329</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -14780,13 +14798,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1332</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -14794,13 +14812,13 @@
         <v>464</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1333</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -14808,13 +14826,13 @@
         <v>464</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1334</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -14822,13 +14840,13 @@
         <v>326</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1335</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -14836,97 +14854,97 @@
         <v>326</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1336</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1159</v>
+        <v>1497</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1337</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1160</v>
+        <v>1176</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1339</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1338</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1330</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1341</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1340</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -14934,13 +14952,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>411</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1342</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -14948,13 +14966,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>411</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1343</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -14962,13 +14980,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1164</v>
+        <v>1497</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1344</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -14976,13 +14994,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1165</v>
+        <v>1498</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1345</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -14990,13 +15008,13 @@
         <v>50</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1346</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -15004,13 +15022,13 @@
         <v>464</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -15018,13 +15036,13 @@
         <v>464</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -15032,13 +15050,13 @@
         <v>464</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -15046,69 +15064,69 @@
         <v>326</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1354</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1353</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1355</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1356</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -15116,13 +15134,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1347</v>
+        <v>1330</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -15130,13 +15148,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1348</v>
+        <v>1331</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -15144,13 +15162,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1349</v>
+        <v>1332</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -15158,13 +15176,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1350</v>
+        <v>1333</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -15172,13 +15190,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1351</v>
+        <v>1334</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>1357</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -15186,13 +15204,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1358</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -15200,13 +15218,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1352</v>
+        <v>1335</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1359</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -15214,13 +15232,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1360</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -15228,13 +15246,13 @@
         <v>263</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1361</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -15242,13 +15260,13 @@
         <v>476</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1362</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -15256,13 +15274,13 @@
         <v>326</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1363</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -15270,13 +15288,13 @@
         <v>326</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>1364</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -15284,27 +15302,27 @@
         <v>326</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>1365</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>1367</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -15312,41 +15330,41 @@
         <v>326</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>1366</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>988</v>
+        <v>1499</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>1368</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>1369</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -15354,41 +15372,41 @@
         <v>15</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>1370</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>1371</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>1372</v>
+        <v>1355</v>
       </c>
     </row>
   </sheetData>
@@ -15402,15 +15420,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
@@ -15434,13 +15452,13 @@
         <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1221</v>
+        <v>1233</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1500</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1387</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -15448,13 +15466,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1222</v>
+        <v>1501</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1388</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -15462,13 +15480,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1250</v>
+        <v>1235</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1389</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -15476,27 +15494,27 @@
         <v>326</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1251</v>
+        <v>1236</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1390</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1252</v>
+        <v>1237</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1391</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -15504,13 +15522,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1253</v>
+        <v>1238</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1392</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -15518,13 +15536,13 @@
         <v>326</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1254</v>
+        <v>1239</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1393</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -15532,13 +15550,13 @@
         <v>326</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1255</v>
+        <v>1240</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1394</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -15546,13 +15564,13 @@
         <v>464</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1256</v>
+        <v>1241</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1395</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -15560,27 +15578,27 @@
         <v>464</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1257</v>
+        <v>1242</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1373</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1258</v>
+        <v>1243</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1374</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -15588,13 +15606,13 @@
         <v>326</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1259</v>
+        <v>1244</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1375</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -15602,13 +15620,13 @@
         <v>50</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1376</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -15616,41 +15634,41 @@
         <v>50</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1261</v>
+        <v>1246</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1378</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1262</v>
+        <v>1247</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1379</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1263</v>
+        <v>1248</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1377</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -15658,13 +15676,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1264</v>
+        <v>1249</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1398</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -15672,13 +15690,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1265</v>
+        <v>1250</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1399</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -15686,13 +15704,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1266</v>
+        <v>1251</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1400</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -15700,13 +15718,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1267</v>
+        <v>1252</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1401</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -15714,13 +15732,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1268</v>
+        <v>1253</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1402</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -15728,13 +15746,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1269</v>
+        <v>1254</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1403</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -15742,13 +15760,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1270</v>
+        <v>1255</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1404</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -15756,13 +15774,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1271</v>
+        <v>1256</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1380</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -15770,13 +15788,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1272</v>
+        <v>1257</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1381</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -15784,13 +15802,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1273</v>
+        <v>1258</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1382</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -15798,13 +15816,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1274</v>
+        <v>1259</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1383</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -15812,13 +15830,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1384</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -15826,13 +15844,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1276</v>
+        <v>1261</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>1385</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -15840,13 +15858,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1277</v>
+        <v>1262</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1386</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -15854,13 +15872,13 @@
         <v>15</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1278</v>
+        <v>1263</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1240</v>
+        <v>1503</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>1396</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -15868,13 +15886,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1279</v>
+        <v>1264</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1241</v>
+        <v>1511</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1397</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -15882,13 +15900,13 @@
         <v>50</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1280</v>
+        <v>1265</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1221</v>
+        <v>1502</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1405</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -15896,13 +15914,13 @@
         <v>326</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1281</v>
+        <v>1266</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1221</v>
+        <v>1502</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1406</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -15910,13 +15928,13 @@
         <v>326</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1282</v>
+        <v>1267</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1221</v>
+        <v>1502</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1407</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -15924,13 +15942,13 @@
         <v>50</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1283</v>
+        <v>1268</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>1240</v>
+        <v>1504</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1408</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -15938,13 +15956,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1284</v>
+        <v>1269</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1409</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -15952,13 +15970,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1285</v>
+        <v>1270</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1242</v>
+        <v>1505</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>1410</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -15966,13 +15984,13 @@
         <v>326</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1286</v>
+        <v>1271</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1243</v>
+        <v>1506</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -15980,27 +15998,27 @@
         <v>326</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1287</v>
+        <v>1272</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>1244</v>
+        <v>1507</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -16008,13 +16026,13 @@
         <v>1</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>1245</v>
+        <v>1508</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>1414</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -16025,10 +16043,10 @@
         <v>467</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>1415</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -16036,13 +16054,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1288</v>
+        <v>1273</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>1294</v>
+        <v>1277</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>1416</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -16050,13 +16068,13 @@
         <v>1</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1289</v>
+        <v>1274</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>1246</v>
+        <v>1513</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>1417</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -16064,13 +16082,13 @@
         <v>1</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1290</v>
+        <v>1275</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1292</v>
+        <v>1509</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>1419</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -16078,13 +16096,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1291</v>
+        <v>1276</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1293</v>
+        <v>1510</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>1418</v>
+        <v>1400</v>
       </c>
     </row>
   </sheetData>
@@ -16098,8 +16116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -16129,7 +16147,7 @@
       <c r="A2" s="22" t="s">
         <v>809</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>715</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -16141,7 +16159,7 @@
       <c r="A3" s="22" t="s">
         <v>693</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="24" t="s">
         <v>717</v>
       </c>
@@ -16151,7 +16169,7 @@
       <c r="A4" s="22" t="s">
         <v>694</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>718</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -16163,7 +16181,7 @@
       <c r="A5" s="22" t="s">
         <v>695</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="24" t="s">
         <v>720</v>
       </c>
@@ -16173,7 +16191,7 @@
       <c r="A6" s="22" t="s">
         <v>696</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="24" t="s">
         <v>721</v>
       </c>
@@ -16183,7 +16201,7 @@
       <c r="A7" s="22" t="s">
         <v>697</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="24" t="s">
         <v>722</v>
       </c>
@@ -16193,7 +16211,7 @@
       <c r="A8" s="22" t="s">
         <v>698</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="24" t="s">
         <v>723</v>
       </c>
@@ -16203,7 +16221,7 @@
       <c r="A9" s="22" t="s">
         <v>699</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="24" t="s">
         <v>724</v>
       </c>
@@ -16213,7 +16231,7 @@
       <c r="A10" s="22" t="s">
         <v>700</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="24" t="s">
         <v>725</v>
       </c>
@@ -16223,7 +16241,7 @@
       <c r="A11" s="22" t="s">
         <v>701</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="24" t="s">
         <v>726</v>
       </c>
@@ -16233,7 +16251,7 @@
       <c r="A12" s="22" t="s">
         <v>702</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="24" t="s">
         <v>727</v>
       </c>
@@ -16243,7 +16261,7 @@
       <c r="A13" s="22" t="s">
         <v>703</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="24" t="s">
         <v>728</v>
       </c>
@@ -16253,7 +16271,7 @@
       <c r="A14" s="22" t="s">
         <v>704</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="23" t="s">
         <v>729</v>
       </c>
@@ -16263,7 +16281,7 @@
       <c r="A15" s="22" t="s">
         <v>705</v>
       </c>
-      <c r="B15" s="34"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="24" t="s">
         <v>730</v>
       </c>
@@ -16273,7 +16291,7 @@
       <c r="A16" s="22" t="s">
         <v>706</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="35" t="s">
         <v>731</v>
       </c>
       <c r="C16" s="24" t="s">
@@ -16285,7 +16303,7 @@
       <c r="A17" s="22" t="s">
         <v>707</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="24" t="s">
         <v>731</v>
       </c>
@@ -16295,7 +16313,7 @@
       <c r="A18" s="22" t="s">
         <v>708</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="24" t="s">
         <v>733</v>
       </c>
@@ -16305,7 +16323,7 @@
       <c r="A19" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="B19" s="34"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="24" t="s">
         <v>734</v>
       </c>
@@ -16315,7 +16333,7 @@
       <c r="A20" s="22" t="s">
         <v>710</v>
       </c>
-      <c r="B20" s="34"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="24" t="s">
         <v>735</v>
       </c>
@@ -16325,7 +16343,7 @@
       <c r="A21" s="22" t="s">
         <v>711</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="35" t="s">
         <v>736</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -16337,7 +16355,7 @@
       <c r="A22" s="22" t="s">
         <v>712</v>
       </c>
-      <c r="B22" s="34"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="24" t="s">
         <v>811</v>
       </c>
@@ -16347,7 +16365,7 @@
       <c r="A23" s="22" t="s">
         <v>713</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="35" t="s">
         <v>737</v>
       </c>
       <c r="C23" s="24" t="s">
@@ -16359,7 +16377,7 @@
       <c r="A24" s="22" t="s">
         <v>714</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="24" t="s">
         <v>739</v>
       </c>
@@ -16369,7 +16387,7 @@
       <c r="A25" s="22" t="s">
         <v>812</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="34" t="s">
         <v>813</v>
       </c>
       <c r="C25" s="24" t="s">
@@ -16381,7 +16399,7 @@
       <c r="A26" s="22" t="s">
         <v>815</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="24" t="s">
         <v>816</v>
       </c>
@@ -16391,7 +16409,7 @@
       <c r="A27" s="22" t="s">
         <v>817</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="24" t="s">
         <v>818</v>
       </c>
@@ -16401,7 +16419,7 @@
       <c r="A28" s="22" t="s">
         <v>819</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="34" t="s">
         <v>820</v>
       </c>
       <c r="C28" s="24" t="s">
@@ -16413,7 +16431,7 @@
       <c r="A29" s="22" t="s">
         <v>822</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="24" t="s">
         <v>823</v>
       </c>
@@ -16423,7 +16441,7 @@
       <c r="A30" s="22" t="s">
         <v>824</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="34" t="s">
         <v>825</v>
       </c>
       <c r="C30" s="24" t="s">
@@ -16435,7 +16453,7 @@
       <c r="A31" s="22" t="s">
         <v>827</v>
       </c>
-      <c r="B31" s="35"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="24" t="s">
         <v>828</v>
       </c>
@@ -16445,7 +16463,7 @@
       <c r="A32" s="22" t="s">
         <v>829</v>
       </c>
-      <c r="B32" s="35"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="24" t="s">
         <v>830</v>
       </c>
@@ -16455,7 +16473,7 @@
       <c r="A33" s="22" t="s">
         <v>831</v>
       </c>
-      <c r="B33" s="35"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="24" t="s">
         <v>832</v>
       </c>
@@ -16465,7 +16483,7 @@
       <c r="A34" s="22" t="s">
         <v>833</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="34" t="s">
         <v>834</v>
       </c>
       <c r="C34" s="24" t="s">
@@ -16477,7 +16495,7 @@
       <c r="A35" s="22" t="s">
         <v>836</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="24" t="s">
         <v>837</v>
       </c>
@@ -16487,7 +16505,7 @@
       <c r="A36" s="22" t="s">
         <v>838</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="24" t="s">
         <v>839</v>
       </c>
@@ -16497,7 +16515,7 @@
       <c r="A37" s="22" t="s">
         <v>840</v>
       </c>
-      <c r="B37" s="35"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="24" t="s">
         <v>841</v>
       </c>
@@ -16507,7 +16525,7 @@
       <c r="A38" s="22" t="s">
         <v>842</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="34" t="s">
         <v>843</v>
       </c>
       <c r="C38" s="24" t="s">
@@ -16519,7 +16537,7 @@
       <c r="A39" s="22" t="s">
         <v>845</v>
       </c>
-      <c r="B39" s="35"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="24" t="s">
         <v>846</v>
       </c>
@@ -16529,7 +16547,7 @@
       <c r="A40" s="22" t="s">
         <v>847</v>
       </c>
-      <c r="B40" s="35"/>
+      <c r="B40" s="34"/>
       <c r="C40" s="24" t="s">
         <v>848</v>
       </c>
@@ -16539,7 +16557,7 @@
       <c r="A41" s="22" t="s">
         <v>849</v>
       </c>
-      <c r="B41" s="35"/>
+      <c r="B41" s="34"/>
       <c r="C41" s="24" t="s">
         <v>850</v>
       </c>
@@ -16549,7 +16567,7 @@
       <c r="A42" s="22" t="s">
         <v>851</v>
       </c>
-      <c r="B42" s="35"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="24" t="s">
         <v>852</v>
       </c>
@@ -16559,7 +16577,7 @@
       <c r="A43" s="22" t="s">
         <v>853</v>
       </c>
-      <c r="B43" s="35"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="24" t="s">
         <v>854</v>
       </c>
@@ -16569,7 +16587,7 @@
       <c r="A44" s="22" t="s">
         <v>855</v>
       </c>
-      <c r="B44" s="35"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="24" t="s">
         <v>856</v>
       </c>
@@ -16579,7 +16597,7 @@
       <c r="A45" s="22" t="s">
         <v>857</v>
       </c>
-      <c r="B45" s="35"/>
+      <c r="B45" s="34"/>
       <c r="C45" s="24" t="s">
         <v>858</v>
       </c>
@@ -16589,7 +16607,7 @@
       <c r="A46" s="22" t="s">
         <v>859</v>
       </c>
-      <c r="B46" s="35"/>
+      <c r="B46" s="34"/>
       <c r="C46" s="24" t="s">
         <v>947</v>
       </c>
@@ -16599,7 +16617,7 @@
       <c r="A47" s="22" t="s">
         <v>860</v>
       </c>
-      <c r="B47" s="35"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="24" t="s">
         <v>861</v>
       </c>
@@ -16609,7 +16627,7 @@
       <c r="A48" s="22" t="s">
         <v>862</v>
       </c>
-      <c r="B48" s="35"/>
+      <c r="B48" s="34"/>
       <c r="C48" s="24" t="s">
         <v>863</v>
       </c>
@@ -16619,7 +16637,7 @@
       <c r="A49" s="22" t="s">
         <v>864</v>
       </c>
-      <c r="B49" s="35"/>
+      <c r="B49" s="34"/>
       <c r="C49" s="24" t="s">
         <v>865</v>
       </c>
@@ -16629,7 +16647,7 @@
       <c r="A50" s="22" t="s">
         <v>866</v>
       </c>
-      <c r="B50" s="35"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="24" t="s">
         <v>867</v>
       </c>
@@ -16639,7 +16657,7 @@
       <c r="A51" s="26" t="s">
         <v>868</v>
       </c>
-      <c r="B51" s="35"/>
+      <c r="B51" s="34"/>
       <c r="C51" s="24" t="s">
         <v>869</v>
       </c>
@@ -16649,7 +16667,7 @@
       <c r="A52" s="22" t="s">
         <v>951</v>
       </c>
-      <c r="B52" s="35"/>
+      <c r="B52" s="34"/>
       <c r="C52" s="29" t="s">
         <v>952</v>
       </c>
@@ -16659,7 +16677,7 @@
       <c r="A53" s="22" t="s">
         <v>870</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="34" t="s">
         <v>871</v>
       </c>
       <c r="C53" s="24" t="s">
@@ -16671,7 +16689,7 @@
       <c r="A54" s="22" t="s">
         <v>873</v>
       </c>
-      <c r="B54" s="35"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="24" t="s">
         <v>874</v>
       </c>
@@ -16681,7 +16699,7 @@
       <c r="A55" s="22" t="s">
         <v>875</v>
       </c>
-      <c r="B55" s="35"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="24" t="s">
         <v>876</v>
       </c>
@@ -16691,7 +16709,7 @@
       <c r="A56" s="22" t="s">
         <v>877</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="34" t="s">
         <v>878</v>
       </c>
       <c r="C56" s="24" t="s">
@@ -16703,7 +16721,7 @@
       <c r="A57" s="22" t="s">
         <v>880</v>
       </c>
-      <c r="B57" s="35"/>
+      <c r="B57" s="34"/>
       <c r="C57" s="24" t="s">
         <v>881</v>
       </c>
@@ -16713,7 +16731,7 @@
       <c r="A58" s="22" t="s">
         <v>882</v>
       </c>
-      <c r="B58" s="35"/>
+      <c r="B58" s="34"/>
       <c r="C58" s="24" t="s">
         <v>883</v>
       </c>
@@ -16723,7 +16741,7 @@
       <c r="A59" s="22" t="s">
         <v>884</v>
       </c>
-      <c r="B59" s="35"/>
+      <c r="B59" s="34"/>
       <c r="C59" s="24" t="s">
         <v>885</v>
       </c>
@@ -16733,7 +16751,7 @@
       <c r="A60" s="22" t="s">
         <v>886</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="34" t="s">
         <v>887</v>
       </c>
       <c r="C60" s="24" t="s">
@@ -16745,7 +16763,7 @@
       <c r="A61" s="22" t="s">
         <v>889</v>
       </c>
-      <c r="B61" s="35"/>
+      <c r="B61" s="34"/>
       <c r="C61" s="24" t="s">
         <v>890</v>
       </c>
@@ -16755,7 +16773,7 @@
       <c r="A62" s="22" t="s">
         <v>891</v>
       </c>
-      <c r="B62" s="35"/>
+      <c r="B62" s="34"/>
       <c r="C62" s="24" t="s">
         <v>892</v>
       </c>
@@ -16765,7 +16783,7 @@
       <c r="A63" s="22" t="s">
         <v>893</v>
       </c>
-      <c r="B63" s="35"/>
+      <c r="B63" s="34"/>
       <c r="C63" s="24" t="s">
         <v>894</v>
       </c>
@@ -16775,7 +16793,7 @@
       <c r="A64" s="22" t="s">
         <v>895</v>
       </c>
-      <c r="B64" s="35"/>
+      <c r="B64" s="34"/>
       <c r="C64" s="24" t="s">
         <v>896</v>
       </c>
@@ -16785,7 +16803,7 @@
       <c r="A65" s="22" t="s">
         <v>897</v>
       </c>
-      <c r="B65" s="35"/>
+      <c r="B65" s="34"/>
       <c r="C65" s="24" t="s">
         <v>898</v>
       </c>
@@ -16795,7 +16813,7 @@
       <c r="A66" s="22" t="s">
         <v>899</v>
       </c>
-      <c r="B66" s="35"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="24" t="s">
         <v>900</v>
       </c>
@@ -16805,7 +16823,7 @@
       <c r="A67" s="22" t="s">
         <v>901</v>
       </c>
-      <c r="B67" s="35"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="24" t="s">
         <v>902</v>
       </c>
@@ -16815,7 +16833,7 @@
       <c r="A68" s="22" t="s">
         <v>903</v>
       </c>
-      <c r="B68" s="35"/>
+      <c r="B68" s="34"/>
       <c r="C68" s="24" t="s">
         <v>904</v>
       </c>
@@ -16825,7 +16843,7 @@
       <c r="A69" s="22" t="s">
         <v>905</v>
       </c>
-      <c r="B69" s="35"/>
+      <c r="B69" s="34"/>
       <c r="C69" s="24" t="s">
         <v>906</v>
       </c>
@@ -16835,7 +16853,7 @@
       <c r="A70" s="22" t="s">
         <v>907</v>
       </c>
-      <c r="B70" s="35"/>
+      <c r="B70" s="34"/>
       <c r="C70" s="24" t="s">
         <v>908</v>
       </c>
@@ -16845,7 +16863,7 @@
       <c r="A71" s="22" t="s">
         <v>909</v>
       </c>
-      <c r="B71" s="35"/>
+      <c r="B71" s="34"/>
       <c r="C71" s="24" t="s">
         <v>910</v>
       </c>
@@ -16855,7 +16873,7 @@
       <c r="A72" s="22" t="s">
         <v>911</v>
       </c>
-      <c r="B72" s="35" t="s">
+      <c r="B72" s="34" t="s">
         <v>912</v>
       </c>
       <c r="C72" s="24" t="s">
@@ -16867,7 +16885,7 @@
       <c r="A73" s="22" t="s">
         <v>914</v>
       </c>
-      <c r="B73" s="35"/>
+      <c r="B73" s="34"/>
       <c r="C73" s="24" t="s">
         <v>915</v>
       </c>
@@ -16877,7 +16895,7 @@
       <c r="A74" s="22" t="s">
         <v>916</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="34" t="s">
         <v>917</v>
       </c>
       <c r="C74" s="24" t="s">
@@ -16889,7 +16907,7 @@
       <c r="A75" s="22" t="s">
         <v>919</v>
       </c>
-      <c r="B75" s="35"/>
+      <c r="B75" s="34"/>
       <c r="C75" s="24" t="s">
         <v>948</v>
       </c>
@@ -16911,7 +16929,7 @@
       <c r="A77" s="22" t="s">
         <v>922</v>
       </c>
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="34" t="s">
         <v>923</v>
       </c>
       <c r="C77" s="24" t="s">
@@ -16923,7 +16941,7 @@
       <c r="A78" s="22" t="s">
         <v>925</v>
       </c>
-      <c r="B78" s="35"/>
+      <c r="B78" s="34"/>
       <c r="C78" s="24" t="s">
         <v>926</v>
       </c>
@@ -16933,7 +16951,7 @@
       <c r="A79" s="22" t="s">
         <v>927</v>
       </c>
-      <c r="B79" s="35"/>
+      <c r="B79" s="34"/>
       <c r="C79" s="24" t="s">
         <v>928</v>
       </c>
@@ -16943,7 +16961,7 @@
       <c r="A80" s="22" t="s">
         <v>929</v>
       </c>
-      <c r="B80" s="35" t="s">
+      <c r="B80" s="34" t="s">
         <v>930</v>
       </c>
       <c r="C80" s="24" t="s">
@@ -16955,7 +16973,7 @@
       <c r="A81" s="22" t="s">
         <v>932</v>
       </c>
-      <c r="B81" s="35"/>
+      <c r="B81" s="34"/>
       <c r="C81" s="24" t="s">
         <v>933</v>
       </c>
@@ -16965,7 +16983,7 @@
       <c r="A82" s="22" t="s">
         <v>934</v>
       </c>
-      <c r="B82" s="35"/>
+      <c r="B82" s="34"/>
       <c r="C82" s="24" t="s">
         <v>935</v>
       </c>
@@ -16975,7 +16993,7 @@
       <c r="A83" s="22" t="s">
         <v>936</v>
       </c>
-      <c r="B83" s="35" t="s">
+      <c r="B83" s="34" t="s">
         <v>937</v>
       </c>
       <c r="C83" s="24" t="s">
@@ -16987,7 +17005,7 @@
       <c r="A84" s="22" t="s">
         <v>939</v>
       </c>
-      <c r="B84" s="35"/>
+      <c r="B84" s="34"/>
       <c r="C84" s="24" t="s">
         <v>940</v>
       </c>
@@ -16997,7 +17015,7 @@
       <c r="A85" s="22" t="s">
         <v>941</v>
       </c>
-      <c r="B85" s="35"/>
+      <c r="B85" s="34"/>
       <c r="C85" s="24" t="s">
         <v>942</v>
       </c>
@@ -17007,14 +17025,24 @@
       <c r="A86" s="22" t="s">
         <v>950</v>
       </c>
-      <c r="B86" s="35"/>
+      <c r="B86" s="34"/>
       <c r="C86" s="27" t="s">
-        <v>953</v>
+        <v>1514</v>
       </c>
       <c r="D86" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B52"/>
     <mergeCell ref="B77:B79"/>
     <mergeCell ref="B80:B82"/>
     <mergeCell ref="B83:B86"/>
@@ -17023,16 +17051,6 @@
     <mergeCell ref="B60:B71"/>
     <mergeCell ref="B72:B73"/>
     <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B52"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17150,10 +17168,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>1420</v>
+        <v>1402</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1421</v>
+        <v>1403</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -17328,10 +17346,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>1422</v>
+        <v>1404</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>1423</v>
+        <v>1405</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -17421,7 +17439,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>1424</v>
+        <v>1406</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -17431,7 +17449,7 @@
         <v>194</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>1425</v>
+        <v>1407</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -17441,7 +17459,7 @@
         <v>190</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>1426</v>
+        <v>1408</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -17470,7 +17488,7 @@
     </row>
     <row r="13" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
-        <v>1427</v>
+        <v>1409</v>
       </c>
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
@@ -17478,16 +17496,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
